--- a/BuildingAnalysis.xlsx
+++ b/BuildingAnalysis.xlsx
@@ -1,30 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samsm\source\repos\DSPTree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AFF6E8-AF72-46FD-A44C-FD3EC7F8C796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C55DF95-9544-44FB-ADA6-8CDA532190FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675" activeTab="2" xr2:uid="{8DF00D36-5A31-4E6A-9ACB-13E2EFC23796}"/>
   </bookViews>
   <sheets>
     <sheet name="Lanes" sheetId="1" r:id="rId1"/>
-    <sheet name="Pivot Table" sheetId="3" r:id="rId2"/>
-    <sheet name="Frequencies" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="Pivot Table" sheetId="3" r:id="rId3"/>
+    <sheet name="Frequencies" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Frequencies!$A$1:$E$48</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Pivot Table'!$A$1:$A$195</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Frequencies!$A$1:$F$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Pivot Table'!$A$1:$A$195</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$A$253</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId4"/>
+    <pivotCache cacheId="3" r:id="rId5"/>
   </pivotCaches>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="98">
   <si>
     <t>Building</t>
   </si>
@@ -317,6 +320,27 @@
   </si>
   <si>
     <t>Deuteron Fuel Rod</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -372,7 +396,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -381,6 +405,8 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,7 +426,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Sam Smith" refreshedDate="44624.681223263891" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="157" xr:uid="{0389E4B8-E087-4409-A28D-55DFA4FAA855}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Sam Smith" refreshedDate="44625.316425462966" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="157" xr:uid="{0389E4B8-E087-4409-A28D-55DFA4FAA855}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:A1048576" sheet="Pivot Table"/>
   </cacheSource>
@@ -942,7 +968,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{77EBC6EF-0474-435B-B885-9D5274F36D4D}" name="PivotTable2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{77EBC6EF-0474-435B-B885-9D5274F36D4D}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F3:G51" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -1464,8 +1490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E562AADC-9189-423D-B12E-A6352B054605}">
   <dimension ref="A2:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B49" sqref="B49:D51"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1503,10 +1529,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
         <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -1941,196 +1967,190 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="C37" t="s">
         <v>34</v>
       </c>
       <c r="D37" t="s">
-        <v>56</v>
-      </c>
-      <c r="E37" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B38" t="s">
         <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D38" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" t="s">
         <v>41</v>
-      </c>
-      <c r="E38" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>55</v>
+      </c>
+      <c r="C39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" t="s">
-        <v>53</v>
-      </c>
-      <c r="D40" t="s">
-        <v>34</v>
-      </c>
-      <c r="E40" t="s">
-        <v>40</v>
-      </c>
-      <c r="F40" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D41" t="s">
-        <v>51</v>
+        <v>34</v>
+      </c>
+      <c r="E41" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D42" t="s">
-        <v>62</v>
-      </c>
-      <c r="E42" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="C43" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="D43" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="E43" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C44" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>66</v>
+        <v>34</v>
+      </c>
+      <c r="E44" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D45" t="s">
-        <v>68</v>
-      </c>
-      <c r="E45" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C46" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D46" t="s">
-        <v>71</v>
-      </c>
-      <c r="E46" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="C47" t="s">
         <v>53</v>
       </c>
       <c r="D47" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E47" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B48" t="s">
         <v>55</v>
@@ -2139,55 +2159,61 @@
         <v>53</v>
       </c>
       <c r="D48" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="E48" t="s">
         <v>66</v>
       </c>
-      <c r="F48" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="C49" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="D49" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B50" t="s">
         <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+        <v>73</v>
+      </c>
+      <c r="E50" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B51" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="D51" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" t="s">
         <v>66</v>
+      </c>
+      <c r="F51" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2196,11 +2222,819 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B24A0B-6AE3-4A29-B439-E08C2ACBF3F0}">
+  <dimension ref="A1:A157"/>
+  <sheetViews>
+    <sheetView topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A157"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A119" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A120" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A122" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A123" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A124" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A125" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A126" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A127" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A128" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A129" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A130" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A131" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A132" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A133" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A134" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A135" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A136" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A137" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A138" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A139" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A140" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A141" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A142" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A143" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A144" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A145" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A146" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A147" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A148" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A149" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A150" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A151" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A152" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A153" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A154" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A155" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A156" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A157" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:A253" xr:uid="{43B24A0B-6AE3-4A29-B439-E08C2ACBF3F0}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A253">
+      <sortCondition ref="A1:A253"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26DD2DF2-8C76-4608-A3EA-012E788C06A7}">
   <dimension ref="A1:G157"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3299,12 +4133,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4DB84E-5142-48A4-9DBD-FEBC42E0B80D}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3314,9 +4148,10 @@
     <col min="3" max="3" width="5.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.06640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>80</v>
       </c>
@@ -3332,8 +4167,11 @@
       <c r="E1" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F1" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3341,11 +4179,14 @@
         <v>18</v>
       </c>
       <c r="C2" s="4">
-        <f>B2/156</f>
+        <f t="shared" ref="C2:C47" si="0">B2/156</f>
         <v>0.11538461538461539</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3353,95 +4194,119 @@
         <v>12</v>
       </c>
       <c r="C3" s="4">
-        <f>B3/156</f>
+        <f t="shared" si="0"/>
         <v>7.6923076923076927E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4">
-        <f>B4/156</f>
-        <v>7.0512820512820512E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>6.4102564102564097E-2</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" si="0"/>
+        <v>4.4871794871794872E-2</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" si="0"/>
+        <v>3.2051282051282048E-2</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4">
-        <f>B5/156</f>
-        <v>6.4102564102564097E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4">
-        <f>B6/156</f>
-        <v>6.4102564102564097E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
       <c r="C7" s="4">
-        <f>B7/156</f>
-        <v>6.4102564102564097E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C8" s="4">
-        <f>B8/156</f>
-        <v>6.4102564102564097E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>1.282051282051282E-2</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C9" s="4">
-        <f>B9/156</f>
-        <v>5.128205128205128E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>1.9230769230769232E-2</v>
+      </c>
+      <c r="F9" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C10" s="4">
-        <f>B10/156</f>
-        <v>4.4871794871794872E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>1.282051282051282E-2</v>
+      </c>
+      <c r="F10" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -3449,107 +4314,131 @@
         <v>6</v>
       </c>
       <c r="C11" s="4">
-        <f>B11/156</f>
+        <f t="shared" si="0"/>
         <v>3.8461538461538464E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F11" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="B12">
         <v>5</v>
       </c>
       <c r="C12" s="4">
-        <f>B12/156</f>
+        <f t="shared" si="0"/>
         <v>3.2051282051282048E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F12" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C13" s="4">
-        <f>B13/156</f>
-        <v>3.2051282051282048E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>1.9230769230769232E-2</v>
+      </c>
+      <c r="F13" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C14" s="4">
-        <f>B14/156</f>
-        <v>2.564102564102564E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>6.4102564102564097E-2</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C15" s="4">
-        <f>B15/156</f>
-        <v>1.9230769230769232E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>6.4102564102564097E-2</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C16" s="4">
-        <f>B16/156</f>
-        <v>1.9230769230769232E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>7.0512820512820512E-2</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C17" s="4">
-        <f>B17/156</f>
-        <v>1.282051282051282E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>6.4102564102564097E-2</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" si="0"/>
+        <v>5.128205128205128E-2</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
         <v>38</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" s="4">
-        <f>B18/156</f>
-        <v>1.282051282051282E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>62</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" s="4">
-        <f>B19/156</f>
+        <f t="shared" si="0"/>
         <v>1.282051282051282E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -3557,14 +4446,14 @@
         <v>1</v>
       </c>
       <c r="C20" s="4">
-        <f>B20/156</f>
+        <f t="shared" si="0"/>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="D20" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -3572,11 +4461,14 @@
         <v>1</v>
       </c>
       <c r="C21" s="4">
-        <f>B21/156</f>
+        <f t="shared" si="0"/>
         <v>6.41025641025641E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F21" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -3584,14 +4476,17 @@
         <v>1</v>
       </c>
       <c r="C22" s="4">
-        <f>B22/156</f>
+        <f t="shared" si="0"/>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="D22" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F22" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -3599,14 +4494,17 @@
         <v>1</v>
       </c>
       <c r="C23" s="4">
-        <f>B23/156</f>
+        <f t="shared" si="0"/>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="D23" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F23" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -3614,14 +4512,17 @@
         <v>1</v>
       </c>
       <c r="C24" s="4">
-        <f>B24/156</f>
+        <f t="shared" si="0"/>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="D24" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F24" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -3629,11 +4530,11 @@
         <v>1</v>
       </c>
       <c r="C25" s="4">
-        <f>B25/156</f>
+        <f t="shared" si="0"/>
         <v>6.41025641025641E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -3641,14 +4542,14 @@
         <v>1</v>
       </c>
       <c r="C26" s="4">
-        <f>B26/156</f>
+        <f t="shared" si="0"/>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="D26" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -3656,14 +4557,14 @@
         <v>1</v>
       </c>
       <c r="C27" s="4">
-        <f>B27/156</f>
+        <f t="shared" si="0"/>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="D27" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -3671,11 +4572,11 @@
         <v>1</v>
       </c>
       <c r="C28" s="4">
-        <f>B28/156</f>
+        <f t="shared" si="0"/>
         <v>6.41025641025641E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>90</v>
       </c>
@@ -3683,11 +4584,11 @@
         <v>1</v>
       </c>
       <c r="C29" s="4">
-        <f>B29/156</f>
+        <f t="shared" si="0"/>
         <v>6.41025641025641E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>89</v>
       </c>
@@ -3695,11 +4596,11 @@
         <v>1</v>
       </c>
       <c r="C30" s="4">
-        <f>B30/156</f>
+        <f t="shared" si="0"/>
         <v>6.41025641025641E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -3707,14 +4608,14 @@
         <v>1</v>
       </c>
       <c r="C31" s="4">
-        <f>B31/156</f>
+        <f t="shared" si="0"/>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="D31" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -3722,7 +4623,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="4">
-        <f>B32/156</f>
+        <f t="shared" si="0"/>
         <v>6.41025641025641E-3</v>
       </c>
     </row>
@@ -3734,7 +4635,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="4">
-        <f>B33/156</f>
+        <f t="shared" si="0"/>
         <v>6.41025641025641E-3</v>
       </c>
     </row>
@@ -3746,7 +4647,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="4">
-        <f>B34/156</f>
+        <f t="shared" si="0"/>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="D34" t="s">
@@ -3761,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="4">
-        <f>B35/156</f>
+        <f t="shared" si="0"/>
         <v>6.41025641025641E-3</v>
       </c>
     </row>
@@ -3773,7 +4674,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="4">
-        <f>B36/156</f>
+        <f t="shared" si="0"/>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="E36" t="s">
@@ -3788,7 +4689,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="4">
-        <f>B37/156</f>
+        <f t="shared" si="0"/>
         <v>6.41025641025641E-3</v>
       </c>
     </row>
@@ -3800,7 +4701,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="4">
-        <f>B38/156</f>
+        <f t="shared" si="0"/>
         <v>6.41025641025641E-3</v>
       </c>
     </row>
@@ -3812,7 +4713,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="4">
-        <f>B39/156</f>
+        <f t="shared" si="0"/>
         <v>6.41025641025641E-3</v>
       </c>
     </row>
@@ -3824,7 +4725,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="4">
-        <f>B40/156</f>
+        <f t="shared" si="0"/>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="D40" t="s">
@@ -3839,7 +4740,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="4">
-        <f>B41/156</f>
+        <f t="shared" si="0"/>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="D41" t="s">
@@ -3854,7 +4755,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="4">
-        <f>B42/156</f>
+        <f t="shared" si="0"/>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="D42" t="s">
@@ -3869,7 +4770,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="4">
-        <f>B43/156</f>
+        <f t="shared" si="0"/>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="D43" t="s">
@@ -3884,7 +4785,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="4">
-        <f>B44/156</f>
+        <f t="shared" si="0"/>
         <v>6.41025641025641E-3</v>
       </c>
     </row>
@@ -3896,7 +4797,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="4">
-        <f>B45/156</f>
+        <f t="shared" si="0"/>
         <v>6.41025641025641E-3</v>
       </c>
     </row>
@@ -3908,7 +4809,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="4">
-        <f>B46/156</f>
+        <f t="shared" si="0"/>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="E46" t="s">
@@ -3923,7 +4824,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="4">
-        <f>B47/156</f>
+        <f t="shared" si="0"/>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="D47" t="s">
@@ -3931,9 +4832,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E48" xr:uid="{BC4DB84E-5142-48A4-9DBD-FEBC42E0B80D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E48">
-      <sortCondition descending="1" ref="B1:B48"/>
+  <autoFilter ref="A1:F47" xr:uid="{BC4DB84E-5142-48A4-9DBD-FEBC42E0B80D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F47">
+      <sortCondition ref="F1:F47"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="C2:C47">

--- a/BuildingAnalysis.xlsx
+++ b/BuildingAnalysis.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samsm\source\repos\DSPTree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C55DF95-9544-44FB-ADA6-8CDA532190FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50523A53-7E1C-421C-8407-562466EE3CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675" activeTab="2" xr2:uid="{8DF00D36-5A31-4E6A-9ACB-13E2EFC23796}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675" activeTab="4" xr2:uid="{8DF00D36-5A31-4E6A-9ACB-13E2EFC23796}"/>
   </bookViews>
   <sheets>
     <sheet name="Lanes" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
     <sheet name="Pivot Table" sheetId="3" r:id="rId3"/>
     <sheet name="Frequencies" sheetId="4" r:id="rId4"/>
+    <sheet name="Final Lanes" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Frequencies!$A$1:$F$47</definedName>
@@ -25,9 +26,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="113">
   <si>
     <t>Building</t>
   </si>
@@ -325,9 +325,6 @@
     <t>Group</t>
   </si>
   <si>
-    <t>1,2,3</t>
-  </si>
-  <si>
     <t>1,2</t>
   </si>
   <si>
@@ -341,6 +338,54 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>Inputs</t>
+  </si>
+  <si>
+    <t>Miner</t>
+  </si>
+  <si>
+    <t>Sorter Mk1</t>
+  </si>
+  <si>
+    <t>Magentic Coil</t>
+  </si>
+  <si>
+    <t>Storage Mk1</t>
+  </si>
+  <si>
+    <t>Blue Science Setup (12 buildings):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electric Motor </t>
+  </si>
+  <si>
+    <t>Sorter Mk2</t>
+  </si>
+  <si>
+    <t>Red Science Setup (11 buildings):</t>
+  </si>
+  <si>
+    <t>Double check</t>
+  </si>
+  <si>
+    <t>Copper Ingot</t>
+  </si>
+  <si>
+    <t>No science and Pre-Blue Science Setup:</t>
+  </si>
+  <si>
+    <t>Super Magnetic Ring</t>
+  </si>
+  <si>
+    <t>Extras</t>
+  </si>
+  <si>
+    <t>Glass/ Super Magnetic Ring</t>
+  </si>
+  <si>
+    <t>Circuit Board/ Processor</t>
   </si>
 </sst>
 </file>
@@ -350,7 +395,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,13 +419,123 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -396,7 +551,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -407,6 +562,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -968,7 +1144,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{77EBC6EF-0474-435B-B885-9D5274F36D4D}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{77EBC6EF-0474-435B-B885-9D5274F36D4D}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F3:G51" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -1490,8 +1666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E562AADC-9189-423D-B12E-A6352B054605}">
   <dimension ref="A2:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:F51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3033,7 +3209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26DD2DF2-8C76-4608-A3EA-012E788C06A7}">
   <dimension ref="A1:G157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -4135,10 +4311,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4DB84E-5142-48A4-9DBD-FEBC42E0B80D}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:W48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4149,9 +4325,10 @@
     <col min="4" max="4" width="16.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.73046875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.06640625" style="7"/>
+    <col min="9" max="26" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>80</v>
       </c>
@@ -4170,143 +4347,183 @@
       <c r="F1" s="6" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="L1">
+        <v>1</v>
+      </c>
+      <c r="M1">
+        <v>2</v>
+      </c>
+      <c r="N1">
+        <v>3</v>
+      </c>
+      <c r="O1">
+        <v>4</v>
+      </c>
+      <c r="P1">
+        <v>5</v>
+      </c>
+      <c r="Q1">
+        <v>6</v>
+      </c>
+      <c r="R1">
+        <v>7</v>
+      </c>
+      <c r="S1">
+        <v>8</v>
+      </c>
+      <c r="T1">
+        <v>9</v>
+      </c>
+      <c r="U1">
+        <v>10</v>
+      </c>
+      <c r="V1">
+        <v>11</v>
+      </c>
+      <c r="W1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="4">
-        <f t="shared" ref="C2:C47" si="0">B2/156</f>
-        <v>0.11538461538461539</v>
+        <f>B2/156</f>
+        <v>0.10897435897435898</v>
       </c>
       <c r="F2" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
+        <f>B3/156</f>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="F3" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H3">
+        <f>4*6</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4">
+        <f>B4/156</f>
+        <v>7.0512820512820512E-2</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
+        <f>B5/156</f>
+        <v>6.4102564102564097E-2</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B4">
+      <c r="B6">
         <v>10</v>
       </c>
-      <c r="C4" s="4">
-        <f t="shared" si="0"/>
+      <c r="C6" s="4">
+        <f>B6/156</f>
         <v>6.4102564102564097E-2</v>
       </c>
-      <c r="F4" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4">
+        <f>B7/156</f>
+        <v>6.4102564102564097E-2</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4">
+        <f>B8/156</f>
+        <v>5.7692307692307696E-2</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4">
+        <f>B9/156</f>
+        <v>5.128205128205128E-2</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4">
-        <f t="shared" si="0"/>
-        <v>4.4871794871794872E-2</v>
-      </c>
-      <c r="F5" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4">
-        <f t="shared" si="0"/>
-        <v>3.2051282051282048E-2</v>
-      </c>
-      <c r="F6" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4">
-        <f t="shared" si="0"/>
-        <v>2.564102564102564E-2</v>
-      </c>
-      <c r="F7" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" s="4">
-        <f t="shared" si="0"/>
-        <v>1.282051282051282E-2</v>
-      </c>
-      <c r="F8" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9" s="4">
-        <f t="shared" si="0"/>
-        <v>1.9230769230769232E-2</v>
-      </c>
-      <c r="F9" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>62</v>
-      </c>
       <c r="B10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C10" s="4">
-        <f t="shared" si="0"/>
-        <v>1.282051282051282E-2</v>
+        <f>B10/156</f>
+        <v>3.8461538461538464E-2</v>
       </c>
       <c r="F10" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -4314,155 +4531,155 @@
         <v>6</v>
       </c>
       <c r="C11" s="4">
-        <f t="shared" si="0"/>
+        <f>B11/156</f>
         <v>3.8461538461538464E-2</v>
       </c>
       <c r="F11" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>5</v>
       </c>
       <c r="C12" s="4">
-        <f t="shared" si="0"/>
+        <f>B12/156</f>
         <v>3.2051282051282048E-2</v>
       </c>
       <c r="F12" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" s="4">
+        <f>B13/156</f>
+        <v>3.2051282051282048E-2</v>
+      </c>
+      <c r="F13" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4">
+        <f>B14/156</f>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
         <v>40</v>
       </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13" s="4">
-        <f t="shared" si="0"/>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" s="4">
+        <f>B15/156</f>
         <v>1.9230769230769232E-2</v>
       </c>
-      <c r="F13" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>10</v>
-      </c>
-      <c r="C14" s="4">
-        <f t="shared" si="0"/>
-        <v>6.4102564102564097E-2</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15">
-        <v>10</v>
-      </c>
-      <c r="C15" s="4">
-        <f t="shared" si="0"/>
-        <v>6.4102564102564097E-2</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F15" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C16" s="4">
-        <f t="shared" si="0"/>
-        <v>7.0512820512820512E-2</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>92</v>
+        <f>B16/156</f>
+        <v>1.9230769230769232E-2</v>
+      </c>
+      <c r="F16" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C17" s="4">
-        <f t="shared" si="0"/>
-        <v>6.4102564102564097E-2</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>92</v>
+        <f>B17/156</f>
+        <v>1.282051282051282E-2</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C18" s="4">
-        <f t="shared" si="0"/>
-        <v>5.128205128205128E-2</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>94</v>
+        <f>B18/156</f>
+        <v>1.282051282051282E-2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" s="4">
-        <f t="shared" si="0"/>
+        <f>B19/156</f>
         <v>1.282051282051282E-2</v>
+      </c>
+      <c r="F19" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="4">
-        <f t="shared" si="0"/>
-        <v>6.41025641025641E-3</v>
-      </c>
-      <c r="D20" t="s">
-        <v>82</v>
+        <f>B20/156</f>
+        <v>1.282051282051282E-2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" s="4">
-        <f t="shared" si="0"/>
+        <f>B21/156</f>
         <v>6.41025641025641E-3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>82</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>96</v>
@@ -4470,17 +4687,14 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" s="4">
-        <f t="shared" si="0"/>
+        <f>B22/156</f>
         <v>6.41025641025641E-3</v>
-      </c>
-      <c r="D22" t="s">
-        <v>82</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>95</v>
@@ -4488,31 +4702,31 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" s="4">
-        <f t="shared" si="0"/>
+        <f>B23/156</f>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="D23" t="s">
         <v>82</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" s="4">
-        <f t="shared" si="0"/>
+        <f>B24/156</f>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="D24" t="s">
@@ -4524,118 +4738,133 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" s="4">
-        <f t="shared" si="0"/>
+        <f>B25/156</f>
         <v>6.41025641025641E-3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" s="4">
-        <f t="shared" si="0"/>
+        <f>B26/156</f>
         <v>6.41025641025641E-3</v>
-      </c>
-      <c r="D26" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" s="4">
-        <f t="shared" si="0"/>
+        <f>B27/156</f>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="D27" t="s">
         <v>82</v>
       </c>
+      <c r="F27" s="7" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" s="4">
-        <f t="shared" si="0"/>
+        <f>B28/156</f>
         <v>6.41025641025641E-3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" s="4">
-        <f t="shared" si="0"/>
+        <f>B29/156</f>
         <v>6.41025641025641E-3</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" s="4">
-        <f t="shared" si="0"/>
+        <f>B30/156</f>
         <v>6.41025641025641E-3</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" s="4">
-        <f t="shared" si="0"/>
+        <f>B31/156</f>
         <v>6.41025641025641E-3</v>
-      </c>
-      <c r="D31" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" s="4">
-        <f t="shared" si="0"/>
+        <f>B32/156</f>
         <v>6.41025641025641E-3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" s="4">
-        <f t="shared" si="0"/>
+        <f>B33/156</f>
         <v>6.41025641025641E-3</v>
       </c>
     </row>
@@ -4647,7 +4876,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="4">
-        <f t="shared" si="0"/>
+        <f>B34/156</f>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="D34" t="s">
@@ -4662,7 +4891,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="4">
-        <f t="shared" si="0"/>
+        <f>B35/156</f>
         <v>6.41025641025641E-3</v>
       </c>
     </row>
@@ -4674,7 +4903,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="4">
-        <f t="shared" si="0"/>
+        <f>B36/156</f>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="E36" t="s">
@@ -4689,7 +4918,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="4">
-        <f t="shared" si="0"/>
+        <f>B37/156</f>
         <v>6.41025641025641E-3</v>
       </c>
     </row>
@@ -4701,7 +4930,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="4">
-        <f t="shared" si="0"/>
+        <f>B38/156</f>
         <v>6.41025641025641E-3</v>
       </c>
     </row>
@@ -4713,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="4">
-        <f t="shared" si="0"/>
+        <f>B39/156</f>
         <v>6.41025641025641E-3</v>
       </c>
     </row>
@@ -4725,7 +4954,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="4">
-        <f t="shared" si="0"/>
+        <f>B40/156</f>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="D40" t="s">
@@ -4740,7 +4969,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="4">
-        <f t="shared" si="0"/>
+        <f>B41/156</f>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="D41" t="s">
@@ -4755,7 +4984,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="4">
-        <f t="shared" si="0"/>
+        <f>B42/156</f>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="D42" t="s">
@@ -4770,7 +4999,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="4">
-        <f t="shared" si="0"/>
+        <f>B43/156</f>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="D43" t="s">
@@ -4785,7 +5014,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="4">
-        <f t="shared" si="0"/>
+        <f>B44/156</f>
         <v>6.41025641025641E-3</v>
       </c>
     </row>
@@ -4797,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="4">
-        <f t="shared" si="0"/>
+        <f>B45/156</f>
         <v>6.41025641025641E-3</v>
       </c>
     </row>
@@ -4809,7 +5038,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="4">
-        <f t="shared" si="0"/>
+        <f>B46/156</f>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="E46" t="s">
@@ -4824,20 +5053,32 @@
         <v>1</v>
       </c>
       <c r="C47" s="4">
-        <f t="shared" si="0"/>
+        <f>B47/156</f>
         <v>6.41025641025641E-3</v>
       </c>
       <c r="D47" t="s">
         <v>82</v>
       </c>
     </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" s="4">
+        <f>B48/156</f>
+        <v>6.41025641025641E-3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F47" xr:uid="{BC4DB84E-5142-48A4-9DBD-FEBC42E0B80D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F47">
-      <sortCondition ref="F1:F47"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F48">
+      <sortCondition descending="1" ref="B1:B47"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="C2:C47">
+  <conditionalFormatting sqref="C2:C48">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -4852,4 +5093,1749 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC4A8CA7-17E9-4367-ABB6-272E19E6DCF4}">
+  <dimension ref="A1:V45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A9" sqref="A9"/>
+      <selection pane="topRight" activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="32.19921875" customWidth="1"/>
+    <col min="2" max="2" width="17.796875" customWidth="1"/>
+    <col min="3" max="3" width="21.9296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.06640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.06640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.3984375" customWidth="1"/>
+    <col min="8" max="8" width="11.53125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.59765625" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.1328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.1328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.06640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A2" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19">
+        <v>1</v>
+      </c>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19">
+        <v>1</v>
+      </c>
+      <c r="M2" s="19">
+        <v>1</v>
+      </c>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9">
+        <v>1</v>
+      </c>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9">
+        <v>1</v>
+      </c>
+      <c r="L3" s="9">
+        <v>1</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10">
+        <v>1</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10">
+        <v>1</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10">
+        <v>1</v>
+      </c>
+      <c r="N4" s="10">
+        <v>1</v>
+      </c>
+      <c r="O4" s="10"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="C8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="10"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="D9" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A10" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="11">
+        <v>1</v>
+      </c>
+      <c r="C10" s="11">
+        <v>1</v>
+      </c>
+      <c r="D10" s="11">
+        <v>1</v>
+      </c>
+      <c r="E10" s="11">
+        <v>1</v>
+      </c>
+      <c r="F10" s="11">
+        <v>1</v>
+      </c>
+      <c r="G10" s="11">
+        <v>1</v>
+      </c>
+      <c r="H10" s="11">
+        <v>1</v>
+      </c>
+      <c r="I10" s="11">
+        <v>1</v>
+      </c>
+      <c r="J10" s="11">
+        <v>1</v>
+      </c>
+      <c r="K10" s="11">
+        <v>1</v>
+      </c>
+      <c r="L10" s="11">
+        <v>1</v>
+      </c>
+      <c r="M10" s="11">
+        <v>1</v>
+      </c>
+      <c r="N10" s="11">
+        <v>1</v>
+      </c>
+      <c r="O10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A11" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="13">
+        <v>1</v>
+      </c>
+      <c r="C11" s="13">
+        <v>1</v>
+      </c>
+      <c r="D11" s="13">
+        <v>1</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13">
+        <v>1</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13">
+        <v>1</v>
+      </c>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13">
+        <v>1</v>
+      </c>
+      <c r="N11" s="13">
+        <v>1</v>
+      </c>
+      <c r="O11" s="13"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12">
+        <v>1</v>
+      </c>
+      <c r="K12" s="12">
+        <v>1</v>
+      </c>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" t="str">
+        <f>IF(SUM(B2,B3,B4,B10,B11,B12)=COUNTIF(B6:B9,"&lt;&gt;"),"","NO")</f>
+        <v/>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" ref="C13:K13" si="0">IF(SUM(C2,C3,C4,C10,C11,C12)=COUNTIF(C6:C9,"&lt;&gt;"),"","NO")</f>
+        <v/>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" ref="L13" si="1">IF(SUM(L2,L3,L4,L10,L11,L12)=COUNTIF(L6:L9,"&lt;&gt;"),"","NO")</f>
+        <v/>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" ref="M13" si="2">IF(SUM(M2,M3,M4,M10,M11,M12)=COUNTIF(M6:M9,"&lt;&gt;"),"","NO")</f>
+        <v/>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" ref="N13" si="3">IF(SUM(N2,N3,N4,N10,N11,N12)=COUNTIF(N6:N9,"&lt;&gt;"),"","NO")</f>
+        <v/>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" ref="O13" si="4">IF(SUM(O2,O3,O4,O10,O11,O12)=COUNTIF(O6:O9,"&lt;&gt;"),"","NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="I15">
+        <v>8</v>
+      </c>
+      <c r="J15">
+        <v>9</v>
+      </c>
+      <c r="L15">
+        <v>10</v>
+      </c>
+      <c r="M15">
+        <v>11</v>
+      </c>
+      <c r="N15">
+        <v>12</v>
+      </c>
+      <c r="O15">
+        <v>13</v>
+      </c>
+      <c r="P15">
+        <v>14</v>
+      </c>
+      <c r="Q15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A16" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8">
+        <v>1</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8">
+        <v>1</v>
+      </c>
+      <c r="L16" s="8"/>
+      <c r="M16" s="26">
+        <v>1</v>
+      </c>
+      <c r="N16" s="26">
+        <v>1</v>
+      </c>
+      <c r="O16" s="26">
+        <v>1</v>
+      </c>
+      <c r="P16" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="26"/>
+      <c r="R16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9">
+        <v>1</v>
+      </c>
+      <c r="G17" s="9">
+        <v>1</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9">
+        <v>1</v>
+      </c>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9">
+        <v>1</v>
+      </c>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A18" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="10">
+        <v>1</v>
+      </c>
+      <c r="C18" s="10">
+        <v>1</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10">
+        <v>1</v>
+      </c>
+      <c r="G18" s="10">
+        <v>1</v>
+      </c>
+      <c r="H18" s="10">
+        <v>1</v>
+      </c>
+      <c r="I18" s="10">
+        <v>1</v>
+      </c>
+      <c r="J18" s="24">
+        <v>1</v>
+      </c>
+      <c r="K18" s="24">
+        <v>1</v>
+      </c>
+      <c r="L18" s="24">
+        <v>1</v>
+      </c>
+      <c r="M18" s="24">
+        <v>1</v>
+      </c>
+      <c r="N18" s="24">
+        <v>1</v>
+      </c>
+      <c r="O18" s="24">
+        <v>1</v>
+      </c>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24">
+        <v>1</v>
+      </c>
+      <c r="R18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B19" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="M19" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="N19" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="O19" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q19" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B20" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="O20" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="P20" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B21" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="M21" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="N21" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q21" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="K22" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="L22" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="M22" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="N22" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="O22" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="P22" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q22" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="C23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="22"/>
+      <c r="K23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="M23" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="N23" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="O23" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q23" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="J24" s="22"/>
+      <c r="M24" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A25" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11">
+        <v>1</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11">
+        <v>1</v>
+      </c>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="11">
+        <v>1</v>
+      </c>
+      <c r="V25" s="22"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A26" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="14">
+        <v>1</v>
+      </c>
+      <c r="F26" s="14">
+        <v>1</v>
+      </c>
+      <c r="G26" s="14">
+        <v>1</v>
+      </c>
+      <c r="H26" s="14">
+        <v>1</v>
+      </c>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13">
+        <v>1</v>
+      </c>
+      <c r="O26" s="13">
+        <v>1</v>
+      </c>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A27" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17">
+        <v>1</v>
+      </c>
+      <c r="G27" s="17">
+        <v>1</v>
+      </c>
+      <c r="H27" s="17">
+        <v>1</v>
+      </c>
+      <c r="I27" s="17">
+        <v>1</v>
+      </c>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17">
+        <v>1</v>
+      </c>
+      <c r="L27" s="17">
+        <v>1</v>
+      </c>
+      <c r="M27" s="17">
+        <v>1</v>
+      </c>
+      <c r="N27" s="17">
+        <v>1</v>
+      </c>
+      <c r="O27" s="17">
+        <v>1</v>
+      </c>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A28" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="18">
+        <v>2</v>
+      </c>
+      <c r="C28" s="18">
+        <v>1</v>
+      </c>
+      <c r="D28" s="18">
+        <v>2</v>
+      </c>
+      <c r="E28" s="18">
+        <v>1</v>
+      </c>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18">
+        <v>1</v>
+      </c>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18">
+        <v>1</v>
+      </c>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18">
+        <v>2</v>
+      </c>
+      <c r="M28" s="18">
+        <v>2</v>
+      </c>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="22" t="str">
+        <f>IF(SUM(B16,B17,B18,B25,B26,B27,B28)=COUNTIF(B20:B24,"&lt;&gt;"),"","NO")</f>
+        <v/>
+      </c>
+      <c r="C29" s="22" t="str">
+        <f t="shared" ref="C29:E29" si="5">IF(SUM(C16,C17,C18,C25,C26,C27,C28)=COUNTIF(C20:C24,"&lt;&gt;"),"","NO")</f>
+        <v/>
+      </c>
+      <c r="D29" s="22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E29" s="22" t="str">
+        <f t="shared" ref="E29:Q29" si="6">IF(SUM(E16,E17,E18,E25,E26,E27,E28)=COUNTIF(E20:E24,"&lt;&gt;"),"","NO")</f>
+        <v/>
+      </c>
+      <c r="F29" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G29" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H29" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I29" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J29" s="22" t="str">
+        <f>IF(SUM(J16,J17,J18,J25,J26,J27,J28)=COUNTIF(J20:J24,"&lt;&gt;"),"","NO")</f>
+        <v/>
+      </c>
+      <c r="K29" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L29" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="M29" s="22" t="str">
+        <f>IF(SUM(M16,M17,M18,M25,M26,M27,M28)=COUNTIF(M20:M24,"&lt;&gt;"),"","NO")</f>
+        <v/>
+      </c>
+      <c r="N29" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="O29" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="P29" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q29" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <v>6</v>
+      </c>
+      <c r="H31">
+        <v>7</v>
+      </c>
+      <c r="I31">
+        <v>8</v>
+      </c>
+      <c r="J31">
+        <v>9</v>
+      </c>
+      <c r="K31">
+        <v>10</v>
+      </c>
+      <c r="L31">
+        <v>11</v>
+      </c>
+      <c r="M31">
+        <v>12</v>
+      </c>
+      <c r="N31">
+        <v>13</v>
+      </c>
+      <c r="O31">
+        <v>14</v>
+      </c>
+      <c r="P31">
+        <v>15</v>
+      </c>
+      <c r="Q31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A32" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8">
+        <v>1</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8">
+        <v>1</v>
+      </c>
+      <c r="G32" s="8">
+        <v>1</v>
+      </c>
+      <c r="H32" s="8">
+        <v>1</v>
+      </c>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8">
+        <v>1</v>
+      </c>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A33" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9">
+        <v>1</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9">
+        <v>1</v>
+      </c>
+      <c r="H33" s="9">
+        <v>1</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9">
+        <v>1</v>
+      </c>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A34" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27">
+        <v>1</v>
+      </c>
+      <c r="D34" s="27">
+        <v>1</v>
+      </c>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27">
+        <v>1</v>
+      </c>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B35" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="I35" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="J35" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="K35" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="L35" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="M35" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="N35" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="O35" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="P35" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q35" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B36" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H36" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I36" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J36" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="K36" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="L36" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="M36" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="N36" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="O36" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="P36" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q36" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B37" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I37" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="J37" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="K37" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="L37" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="M37" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="N37" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="O37" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="P37" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q37" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B38" s="22"/>
+      <c r="C38" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="22"/>
+      <c r="F38" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H38" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="I38" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="J38" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="K38" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="L38" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="M38" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="N38" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="O38" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="P38" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q38" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="G39" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="J39" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="M39" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="N39" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="P39" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q39" s="28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="H40" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q40" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A41" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25">
+        <v>1</v>
+      </c>
+      <c r="H41" s="25">
+        <v>1</v>
+      </c>
+      <c r="I41" s="25">
+        <v>1</v>
+      </c>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25">
+        <v>1</v>
+      </c>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25">
+        <v>1</v>
+      </c>
+      <c r="O41" s="25"/>
+      <c r="P41" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A42" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28">
+        <v>1</v>
+      </c>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28">
+        <v>1</v>
+      </c>
+      <c r="O42" s="28">
+        <v>1</v>
+      </c>
+      <c r="P42" s="28">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A43" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16">
+        <v>1</v>
+      </c>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16">
+        <v>1</v>
+      </c>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16">
+        <v>1</v>
+      </c>
+      <c r="N43" s="16">
+        <v>1</v>
+      </c>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A44" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" s="18">
+        <v>2</v>
+      </c>
+      <c r="C44" s="18">
+        <v>1</v>
+      </c>
+      <c r="D44" s="18">
+        <v>1</v>
+      </c>
+      <c r="E44" s="18">
+        <v>2</v>
+      </c>
+      <c r="F44" s="18">
+        <v>1</v>
+      </c>
+      <c r="G44" s="18">
+        <v>1</v>
+      </c>
+      <c r="H44" s="18">
+        <v>0</v>
+      </c>
+      <c r="I44" s="18">
+        <v>2</v>
+      </c>
+      <c r="J44" s="18">
+        <v>3</v>
+      </c>
+      <c r="K44" s="18">
+        <v>1</v>
+      </c>
+      <c r="L44" s="18">
+        <v>2</v>
+      </c>
+      <c r="M44" s="18">
+        <v>3</v>
+      </c>
+      <c r="N44" s="18">
+        <v>1</v>
+      </c>
+      <c r="O44" s="18">
+        <v>2</v>
+      </c>
+      <c r="P44" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" t="str">
+        <f>IF(SUM(B32,B33,B34,P19,B41,B42,B43,B44)=COUNTIF(B36:B40,"&lt;&gt;"),"","NO")</f>
+        <v/>
+      </c>
+      <c r="C45" t="e">
+        <f>IF(SUM(C32,C33,C34,#REF!,C41,C42,C43,C44)=COUNTIF(C36:C40,"&lt;&gt;"),"","NO")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" ref="C45:J45" si="7">IF(SUM(D32,D33,D34,R19,D41,D42,D43,D44)=COUNTIF(D36:D40,"&lt;&gt;"),"","NO")</f>
+        <v/>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" ref="H45" si="8">IF(SUM(H32,H33,H34,V19,H41,H42,H43,H44)=COUNTIF(H36:H40,"&lt;&gt;"),"","NO")</f>
+        <v/>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" ref="I45" si="9">IF(SUM(I32,I33,I34,W19,I41,I42,I43,I44)=COUNTIF(I36:I40,"&lt;&gt;"),"","NO")</f>
+        <v/>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" ref="J45" si="10">IF(SUM(J32,J33,J34,X19,J41,J42,J43,J44)=COUNTIF(J36:J40,"&lt;&gt;"),"","NO")</f>
+        <v/>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" ref="K45" si="11">IF(SUM(K32,K33,K34,Y19,K41,K42,K43,K44)=COUNTIF(K36:K40,"&lt;&gt;"),"","NO")</f>
+        <v/>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" ref="L45" si="12">IF(SUM(L32,L33,L34,Z19,L41,L42,L43,L44)=COUNTIF(L36:L40,"&lt;&gt;"),"","NO")</f>
+        <v/>
+      </c>
+      <c r="M45" t="str">
+        <f t="shared" ref="M45" si="13">IF(SUM(M32,M33,M34,AA19,M41,M42,M43,M44)=COUNTIF(M36:M40,"&lt;&gt;"),"","NO")</f>
+        <v/>
+      </c>
+      <c r="N45" t="str">
+        <f t="shared" ref="N45" si="14">IF(SUM(N32,N33,N34,AB19,N41,N42,N43,N44)=COUNTIF(N36:N40,"&lt;&gt;"),"","NO")</f>
+        <v/>
+      </c>
+      <c r="O45" t="str">
+        <f>IF(SUM(N32,N33,N34,AC19,N41,N42,N43,N44)=COUNTIF(N36:N40,"&lt;&gt;"),"","NO")</f>
+        <v/>
+      </c>
+      <c r="P45" t="str">
+        <f>IF(SUM(O32,O33,O34,AD19,O41,O42,O43,O44)=COUNTIF(O36:O40,"&lt;&gt;"),"","NO")</f>
+        <v/>
+      </c>
+      <c r="Q45" t="str">
+        <f>IF(SUM(P32,P33,P34,AE19,P41,P42,P43,P44)=COUNTIF(P36:P40,"&lt;&gt;"),"","NO")</f>
+        <v/>
+      </c>
+      <c r="R45" t="str">
+        <f>IF(SUM(Q32,Q33,Q34,AF19,Q41,Q42,Q43,Q44)=COUNTIF(Q36:Q40,"&lt;&gt;"),"","NO")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/BuildingAnalysis.xlsx
+++ b/BuildingAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samsm\source\repos\DSPTree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50523A53-7E1C-421C-8407-562466EE3CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C1638E-7484-450A-8614-5D76CA03593A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675" activeTab="4" xr2:uid="{8DF00D36-5A31-4E6A-9ACB-13E2EFC23796}"/>
   </bookViews>
@@ -5099,7 +5099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC4A8CA7-17E9-4367-ABB6-272E19E6DCF4}">
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
       <selection pane="topRight" activeCell="F30" sqref="F30"/>

--- a/BuildingAnalysis.xlsx
+++ b/BuildingAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samsm\source\repos\DSPTree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C1638E-7484-450A-8614-5D76CA03593A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426191B6-6C36-4CF1-9CB9-864B99200DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675" activeTab="4" xr2:uid="{8DF00D36-5A31-4E6A-9ACB-13E2EFC23796}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="114">
   <si>
     <t>Building</t>
   </si>
@@ -386,6 +386,9 @@
   </si>
   <si>
     <t>Circuit Board/ Processor</t>
+  </si>
+  <si>
+    <t>Foundation</t>
   </si>
 </sst>
 </file>
@@ -5097,12 +5100,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC4A8CA7-17E9-4367-ABB6-272E19E6DCF4}">
-  <dimension ref="A1:V45"/>
+  <dimension ref="A1:V48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="topRight" activeCell="F30" sqref="F30"/>
+      <selection pane="topRight" activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5126,7 +5129,7 @@
     <col min="18" max="18" width="22.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>108</v>
       </c>
@@ -5173,7 +5176,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2" s="19" t="s">
         <v>16</v>
       </c>
@@ -5198,7 +5201,7 @@
       <c r="N2" s="19"/>
       <c r="O2" s="19"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
@@ -5227,7 +5230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
@@ -5260,7 +5263,7 @@
       </c>
       <c r="O4" s="10"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -5307,7 +5310,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>97</v>
       </c>
@@ -5354,7 +5357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B7" s="13" t="s">
         <v>4</v>
       </c>
@@ -5392,7 +5395,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C8" s="10" t="s">
         <v>9</v>
       </c>
@@ -5417,9 +5420,8 @@
       <c r="N8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="O8" s="10"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="D9" s="12" t="s">
         <v>100</v>
       </c>
@@ -5445,7 +5447,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A10" s="11" t="s">
         <v>3</v>
       </c>
@@ -5492,7 +5494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A11" s="13" t="s">
         <v>4</v>
       </c>
@@ -5525,7 +5527,7 @@
       </c>
       <c r="O11" s="13"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="s">
         <v>6</v>
       </c>
@@ -5556,7 +5558,7 @@
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>106</v>
       </c>
@@ -5617,7 +5619,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>102</v>
       </c>
@@ -5666,8 +5668,11 @@
       <c r="Q15">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="R15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>111</v>
       </c>
@@ -5699,7 +5704,8 @@
         <v>1</v>
       </c>
       <c r="Q16" s="26"/>
-      <c r="R16" t="s">
+      <c r="R16" s="26"/>
+      <c r="S16" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5733,6 +5739,9 @@
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
+      <c r="R17" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A18" s="10" t="s">
@@ -5780,7 +5789,8 @@
       <c r="Q18" s="24">
         <v>1</v>
       </c>
-      <c r="R18" t="s">
+      <c r="R18" s="24"/>
+      <c r="S18" t="s">
         <v>41</v>
       </c>
     </row>
@@ -5833,6 +5843,9 @@
       <c r="Q19" s="21" t="s">
         <v>57</v>
       </c>
+      <c r="R19" s="21" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B20" s="18" t="s">
@@ -5883,6 +5896,9 @@
       <c r="Q20" s="18" t="s">
         <v>55</v>
       </c>
+      <c r="R20" s="17" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B21" s="18" t="s">
@@ -5932,6 +5948,9 @@
       </c>
       <c r="Q21" s="17" t="s">
         <v>23</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.45">
@@ -6048,6 +6067,7 @@
       <c r="Q25" s="11">
         <v>1</v>
       </c>
+      <c r="R25" s="11"/>
       <c r="V25" s="22"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.45">
@@ -6082,6 +6102,7 @@
       </c>
       <c r="P26" s="13"/>
       <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A27" s="17" t="s">
@@ -6121,6 +6142,9 @@
       </c>
       <c r="P27" s="17"/>
       <c r="Q27" s="17"/>
+      <c r="R27" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A28" s="18" t="s">
@@ -6162,6 +6186,7 @@
       <c r="Q28" s="18">
         <v>2</v>
       </c>
+      <c r="R28" s="18"/>
     </row>
     <row r="29" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A29" s="22" t="s">
@@ -6180,7 +6205,7 @@
         <v/>
       </c>
       <c r="E29" s="22" t="str">
-        <f t="shared" ref="E29:Q29" si="6">IF(SUM(E16,E17,E18,E25,E26,E27,E28)=COUNTIF(E20:E24,"&lt;&gt;"),"","NO")</f>
+        <f t="shared" ref="E29:R29" si="6">IF(SUM(E16,E17,E18,E25,E26,E27,E28)=COUNTIF(E20:E24,"&lt;&gt;"),"","NO")</f>
         <v/>
       </c>
       <c r="F29" s="22" t="str">
@@ -6229,6 +6254,10 @@
       </c>
       <c r="Q29" s="22" t="str">
         <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="R29" s="22" t="str">
+        <f>IF(SUM(S16,R17,S18,R25,R26,R27,R28)=COUNTIF(R20:R24,"&lt;&gt;"),"","NO")</f>
         <v/>
       </c>
     </row>
@@ -6769,12 +6798,12 @@
         <f>IF(SUM(B32,B33,B34,P19,B41,B42,B43,B44)=COUNTIF(B36:B40,"&lt;&gt;"),"","NO")</f>
         <v/>
       </c>
-      <c r="C45" t="e">
-        <f>IF(SUM(C32,C33,C34,#REF!,C41,C42,C43,C44)=COUNTIF(C36:C40,"&lt;&gt;"),"","NO")</f>
-        <v>#REF!</v>
+      <c r="C45" t="str">
+        <f t="shared" ref="C45:Q45" si="7">IF(SUM(C32,C33,C34,Q19,C41,C42,C43,C44)=COUNTIF(C36:C40,"&lt;&gt;"),"","NO")</f>
+        <v/>
       </c>
       <c r="D45" t="str">
-        <f t="shared" ref="C45:J45" si="7">IF(SUM(D32,D33,D34,R19,D41,D42,D43,D44)=COUNTIF(D36:D40,"&lt;&gt;"),"","NO")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E45" t="str">
@@ -6790,48 +6819,54 @@
         <v/>
       </c>
       <c r="H45" t="str">
-        <f t="shared" ref="H45" si="8">IF(SUM(H32,H33,H34,V19,H41,H42,H43,H44)=COUNTIF(H36:H40,"&lt;&gt;"),"","NO")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I45" t="str">
-        <f t="shared" ref="I45" si="9">IF(SUM(I32,I33,I34,W19,I41,I42,I43,I44)=COUNTIF(I36:I40,"&lt;&gt;"),"","NO")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="J45" t="str">
-        <f t="shared" ref="J45" si="10">IF(SUM(J32,J33,J34,X19,J41,J42,J43,J44)=COUNTIF(J36:J40,"&lt;&gt;"),"","NO")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="K45" t="str">
-        <f t="shared" ref="K45" si="11">IF(SUM(K32,K33,K34,Y19,K41,K42,K43,K44)=COUNTIF(K36:K40,"&lt;&gt;"),"","NO")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L45" t="str">
-        <f t="shared" ref="L45" si="12">IF(SUM(L32,L33,L34,Z19,L41,L42,L43,L44)=COUNTIF(L36:L40,"&lt;&gt;"),"","NO")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M45" t="str">
-        <f t="shared" ref="M45" si="13">IF(SUM(M32,M33,M34,AA19,M41,M42,M43,M44)=COUNTIF(M36:M40,"&lt;&gt;"),"","NO")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N45" t="str">
-        <f t="shared" ref="N45" si="14">IF(SUM(N32,N33,N34,AB19,N41,N42,N43,N44)=COUNTIF(N36:N40,"&lt;&gt;"),"","NO")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O45" t="str">
-        <f>IF(SUM(N32,N33,N34,AC19,N41,N42,N43,N44)=COUNTIF(N36:N40,"&lt;&gt;"),"","NO")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P45" t="str">
-        <f>IF(SUM(O32,O33,O34,AD19,O41,O42,O43,O44)=COUNTIF(O36:O40,"&lt;&gt;"),"","NO")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Q45" t="str">
-        <f>IF(SUM(P32,P33,P34,AE19,P41,P42,P43,P44)=COUNTIF(P36:P40,"&lt;&gt;"),"","NO")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R45" t="str">
         <f>IF(SUM(Q32,Q33,Q34,AF19,Q41,Q42,Q43,Q44)=COUNTIF(Q36:Q40,"&lt;&gt;"),"","NO")</f>
         <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="M48">
+        <f>SQRT(121)</f>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/BuildingAnalysis.xlsx
+++ b/BuildingAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samsm\source\repos\DSPTree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426191B6-6C36-4CF1-9CB9-864B99200DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133AE31A-BBEC-4629-9A15-0FEE969CCD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675" activeTab="4" xr2:uid="{8DF00D36-5A31-4E6A-9ACB-13E2EFC23796}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="Pivot Table" sheetId="3" r:id="rId3"/>
     <sheet name="Frequencies" sheetId="4" r:id="rId4"/>
     <sheet name="Final Lanes" sheetId="6" r:id="rId5"/>
+    <sheet name="Blueprints" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Frequencies!$A$1:$F$47</definedName>
@@ -26,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="135">
   <si>
     <t>Building</t>
   </si>
@@ -389,6 +390,69 @@
   </si>
   <si>
     <t>Foundation</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>https://dsp-wiki.com/Mass_Construction_(Upgrade)</t>
+  </si>
+  <si>
+    <t>Tier</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>Resource Consumption</t>
+  </si>
+  <si>
+    <t>Hashes</t>
+  </si>
+  <si>
+    <t>Requires</t>
+  </si>
+  <si>
+    <t>Unlocks</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>12.0k</t>
+  </si>
+  <si>
+    <t>Blueprint limit: 150 Facilities.</t>
+  </si>
+  <si>
+    <t>Also unlocks the Blueprint Library feature.</t>
+  </si>
+  <si>
+    <t>36.0k</t>
+  </si>
+  <si>
+    <t>Blueprint limit: 300 Facilities.</t>
+  </si>
+  <si>
+    <t>60.0k</t>
+  </si>
+  <si>
+    <t>Blueprint limit: 900 Facilities.</t>
+  </si>
+  <si>
+    <t>192k</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Blueprint limit: 3600 Facilities.</t>
+  </si>
+  <si>
+    <t>240k</t>
+  </si>
+  <si>
+    <t>Blueprint without limit.</t>
   </si>
 </sst>
 </file>
@@ -398,7 +462,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,8 +494,61 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16.5"/>
+      <color rgb="FF8BFFFF"/>
+      <name val="Countdown"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFDDDDDD"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFDDDDDD"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFFA500"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -540,8 +657,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0B161C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -549,12 +678,130 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -565,29 +812,106 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -604,8 +928,1129 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Mass Construction (Upgrade)"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B29947CF-EA58-47ED-A82D-CAD6AE3C2F0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="647700" y="1066800"/>
+          <a:ext cx="762000" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3" tooltip="Circuit Board"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B38FF1AA-0DE4-4784-A816-0B6874BD600F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1295400" y="1066800"/>
+          <a:ext cx="428625" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5" tooltip="Mecha Core (Upgrade)"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA0F3AAC-C073-4251-939E-824564380AA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4533900" y="1066800"/>
+          <a:ext cx="647700" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Mass Construction (Upgrade)"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC4E0C27-E805-42E0-A284-99D1E9235475}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="647700" y="1971675"/>
+          <a:ext cx="762000" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8" tooltip="Electromagnetic Matrix"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FC7C039-25DB-4574-B97B-A6BE6213B853}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1295400" y="1971675"/>
+          <a:ext cx="428625" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Mass Construction (Upgrade)"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43B2E3E8-961C-46F7-8648-4C05FD902429}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="647700" y="2695575"/>
+          <a:ext cx="762000" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8" tooltip="Electromagnetic Matrix"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1953FFC2-430B-4FDF-BC4B-3DE5239922DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1295400" y="2695575"/>
+          <a:ext cx="428625" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11" tooltip="Energy Matrix"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{874C0FCE-2508-40EF-9F1B-CEEB722B66E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1943100" y="2695575"/>
+          <a:ext cx="428625" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5" tooltip="Mecha Core (Upgrade)"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4F6B54A-751B-40BA-B374-91F0533DD3EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4533900" y="2695575"/>
+          <a:ext cx="666750" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Mass Construction (Upgrade)"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D82AFD65-9834-460F-BF59-AA1B87921079}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="647700" y="3419475"/>
+          <a:ext cx="762000" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8" tooltip="Electromagnetic Matrix"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{683227FC-0E4D-4A2C-830B-D1B9ABED249F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1295400" y="3419475"/>
+          <a:ext cx="428625" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11" tooltip="Energy Matrix"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AA84C52-C18C-4D12-AC8C-1A88D0F27272}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1943100" y="3419475"/>
+          <a:ext cx="428625" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15" tooltip="Structure Matrix"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA00658B-2663-4CEA-9D64-8F0D0BF772A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2590800" y="3419475"/>
+          <a:ext cx="428625" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Mass Construction (Upgrade)"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE16A443-235F-40F2-8412-C11BBC907DFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="647700" y="4143375"/>
+          <a:ext cx="762000" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8" tooltip="Electromagnetic Matrix"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5996A8C-AE32-4848-A05A-767E8D12490C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1295400" y="4143375"/>
+          <a:ext cx="428625" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11" tooltip="Energy Matrix"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCD73449-6F5B-40E1-B143-D7A11EE7B8DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1943100" y="4143375"/>
+          <a:ext cx="428625" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15" tooltip="Structure Matrix"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA1362CD-6346-4E53-8A0B-A63D7655DAEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2590800" y="4143375"/>
+          <a:ext cx="428625" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17" tooltip="Information Matrix"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D3EA99F-69C9-401C-ACF8-B078D48806CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3238500" y="4143375"/>
+          <a:ext cx="428625" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Sam Smith" refreshedDate="44625.316425462966" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="157" xr:uid="{0389E4B8-E087-4409-A28D-55DFA4FAA855}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Sam Smith" refreshedDate="44626.662135879633" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="159" xr:uid="{0389E4B8-E087-4409-A28D-55DFA4FAA855}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:A1048576" sheet="Pivot Table"/>
   </cacheSource>
@@ -671,7 +2116,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="157">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="159">
   <r>
     <x v="0"/>
   </r>
@@ -1139,6 +2584,12 @@
   </r>
   <r>
     <x v="45"/>
+  </r>
+  <r>
+    <x v="37"/>
+  </r>
+  <r>
+    <x v="38"/>
   </r>
   <r>
     <x v="46"/>
@@ -1673,7 +3124,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.06640625" bestFit="1" customWidth="1"/>
@@ -1682,17 +3133,17 @@
     <col min="6" max="6" width="18.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1703,7 +3154,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1714,7 +3165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1728,7 +3179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1739,7 +3190,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1753,7 +3204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1770,7 +3221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1787,7 +3238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1798,7 +3249,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1815,7 +3266,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1826,7 +3277,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1843,7 +3294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1857,7 +3308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1871,7 +3322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1888,7 +3339,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1905,7 +3356,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1922,7 +3373,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1936,7 +3387,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1947,7 +3398,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1964,7 +3415,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1981,7 +3432,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1998,7 +3449,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -2012,7 +3463,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -2023,7 +3474,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -2034,7 +3485,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -2048,7 +3499,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -2062,7 +3513,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -2073,7 +3524,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -2090,7 +3541,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -2107,7 +3558,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -2127,7 +3578,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -2144,7 +3595,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>85</v>
       </c>
@@ -2158,7 +3609,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -2172,7 +3623,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>54</v>
       </c>
@@ -2189,7 +3640,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -2206,7 +3657,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>58</v>
       </c>
@@ -2214,7 +3665,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -2234,7 +3685,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>60</v>
       </c>
@@ -2248,7 +3699,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -2265,7 +3716,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -2282,7 +3733,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>86</v>
       </c>
@@ -2296,7 +3747,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>64</v>
       </c>
@@ -2310,7 +3761,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>67</v>
       </c>
@@ -2327,7 +3778,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>70</v>
       </c>
@@ -2344,7 +3795,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>87</v>
       </c>
@@ -2358,7 +3809,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>72</v>
       </c>
@@ -2375,7 +3826,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>74</v>
       </c>
@@ -2408,792 +3859,792 @@
       <selection activeCell="A2" sqref="A2:A157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1">
       <c r="A42" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:1">
       <c r="A43" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:1">
       <c r="A44" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:1">
       <c r="A45" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:1">
       <c r="A46" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:1">
       <c r="A47" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:1">
       <c r="A48" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1">
       <c r="A49" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1">
       <c r="A50" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1">
       <c r="A51" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:1">
       <c r="A52" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1">
       <c r="A53" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:1">
       <c r="A54" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:1">
       <c r="A55" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:1">
       <c r="A56" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:1">
       <c r="A57" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1">
       <c r="A58" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:1">
       <c r="A59" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:1">
       <c r="A60" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:1">
       <c r="A61" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:1">
       <c r="A62" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:1">
       <c r="A63" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:1">
       <c r="A64" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:1">
       <c r="A65" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:1">
       <c r="A66" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:1">
       <c r="A67" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:1">
       <c r="A68" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:1">
       <c r="A69" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:1">
       <c r="A70" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:1">
       <c r="A71" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:1">
       <c r="A72" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:1">
       <c r="A73" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:1">
       <c r="A74" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:1">
       <c r="A75" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:1">
       <c r="A76" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:1">
       <c r="A77" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:1">
       <c r="A78" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:1">
       <c r="A79" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:1">
       <c r="A80" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:1">
       <c r="A81" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:1">
       <c r="A82" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:1">
       <c r="A83" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:1">
       <c r="A84" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:1">
       <c r="A85" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:1">
       <c r="A86" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:1">
       <c r="A87" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:1">
       <c r="A88" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:1">
       <c r="A89" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:1">
       <c r="A90" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:1">
       <c r="A91" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:1">
       <c r="A92" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:1">
       <c r="A93" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:1">
       <c r="A94" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:1">
       <c r="A95" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:1">
       <c r="A96" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:1">
       <c r="A97" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:1">
       <c r="A98" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:1">
       <c r="A99" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:1">
       <c r="A100" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:1">
       <c r="A101" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:1">
       <c r="A102" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:1">
       <c r="A103" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:1">
       <c r="A104" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:1">
       <c r="A105" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:1">
       <c r="A106" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:1">
       <c r="A107" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:1">
       <c r="A108" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:1">
       <c r="A109" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:1">
       <c r="A110" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:1">
       <c r="A111" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:1">
       <c r="A112" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:1">
       <c r="A113" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:1">
       <c r="A114" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:1">
       <c r="A115" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:1">
       <c r="A116" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:1">
       <c r="A117" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:1">
       <c r="A118" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:1">
       <c r="A119" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:1">
       <c r="A120" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:1">
       <c r="A121" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:1">
       <c r="A122" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:1">
       <c r="A123" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:1">
       <c r="A124" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:1">
       <c r="A125" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:1">
       <c r="A126" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:1">
       <c r="A127" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:1">
       <c r="A128" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:1">
       <c r="A129" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:1">
       <c r="A130" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:1">
       <c r="A131" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:1">
       <c r="A132" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:1">
       <c r="A133" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:1">
       <c r="A134" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:1">
       <c r="A135" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:1">
       <c r="A136" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:1">
       <c r="A137" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:1">
       <c r="A138" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:1">
       <c r="A139" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:1">
       <c r="A140" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:1">
       <c r="A141" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:1">
       <c r="A142" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:1">
       <c r="A143" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:1">
       <c r="A144" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:1">
       <c r="A145" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:1">
       <c r="A146" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:1">
       <c r="A147" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:1">
       <c r="A148" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:1">
       <c r="A149" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:1">
       <c r="A150" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:1">
       <c r="A151" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:1">
       <c r="A152" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:1">
       <c r="A153" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:1">
       <c r="A154" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:1">
       <c r="A155" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:1">
       <c r="A156" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:1">
       <c r="A157" t="s">
         <v>17</v>
       </c>
@@ -3210,13 +4661,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26DD2DF2-8C76-4608-A3EA-012E788C06A7}">
-  <dimension ref="A1:G157"/>
+  <dimension ref="A1:G159"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="25.06640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.06640625" bestFit="1" customWidth="1"/>
@@ -3225,17 +4676,17 @@
     <col min="50" max="50" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -3246,7 +4697,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -3257,7 +4708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -3268,7 +4719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -3279,7 +4730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -3290,7 +4741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3301,7 +4752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3312,7 +4763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3323,7 +4774,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3334,7 +4785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3345,7 +4796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -3356,7 +4807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -3367,7 +4818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -3378,7 +4829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -3389,7 +4840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -3400,7 +4851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -3411,7 +4862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -3422,7 +4873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -3433,7 +4884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -3444,7 +4895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -3455,7 +4906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>90</v>
       </c>
@@ -3466,7 +4917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>89</v>
       </c>
@@ -3477,7 +4928,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -3488,7 +4939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -3499,7 +4950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -3510,7 +4961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -3521,7 +4972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -3532,7 +4983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -3543,7 +4994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -3554,7 +5005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -3565,7 +5016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -3576,7 +5027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -3587,7 +5038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>58</v>
       </c>
@@ -3598,7 +5049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -3609,7 +5060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -3620,7 +5071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -3631,7 +5082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -3639,10 +5090,10 @@
         <v>23</v>
       </c>
       <c r="G39" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -3650,10 +5101,10 @@
         <v>13</v>
       </c>
       <c r="G40" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -3664,7 +5115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -3675,7 +5126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -3686,7 +5137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -3697,7 +5148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -3708,7 +5159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -3719,7 +5170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>16</v>
       </c>
@@ -3728,7 +5179,7 @@
       </c>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>16</v>
       </c>
@@ -3739,7 +5190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>16</v>
       </c>
@@ -3750,7 +5201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>16</v>
       </c>
@@ -3761,7 +5212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>40</v>
       </c>
@@ -3769,537 +5220,547 @@
         <v>78</v>
       </c>
       <c r="G51" s="2">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:1">
       <c r="A65" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:1">
       <c r="A66" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:1">
       <c r="A67" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:1">
       <c r="A68" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:1">
       <c r="A69" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:1">
       <c r="A70" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:1">
       <c r="A71" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:1">
       <c r="A72" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:1">
       <c r="A73" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:1">
       <c r="A74" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:1">
       <c r="A75" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:1">
       <c r="A76" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:1">
       <c r="A77" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:1">
       <c r="A78" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:1">
       <c r="A79" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:1">
       <c r="A80" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:1">
       <c r="A81" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:1">
       <c r="A82" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:1">
       <c r="A83" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:1">
       <c r="A84" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:1">
       <c r="A85" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:1">
       <c r="A86" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:1">
       <c r="A87" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:1">
       <c r="A88" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:1">
       <c r="A89" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:1">
       <c r="A90" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:1">
       <c r="A91" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:1">
       <c r="A92" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:1">
       <c r="A93" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:1">
       <c r="A94" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:1">
       <c r="A95" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:1">
       <c r="A96" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:1">
       <c r="A97" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:1">
       <c r="A98" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:1">
       <c r="A99" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:1">
       <c r="A100" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:1">
       <c r="A101" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:1">
       <c r="A102" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:1">
       <c r="A103" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:1">
       <c r="A104" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:1">
       <c r="A105" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:1">
       <c r="A106" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:1">
       <c r="A107" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:1">
       <c r="A108" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:1">
       <c r="A109" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:1">
       <c r="A110" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:1">
       <c r="A111" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:1">
       <c r="A112" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:1">
       <c r="A113" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:1">
       <c r="A114" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:1">
       <c r="A115" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:1">
       <c r="A116" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:1">
       <c r="A117" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:1">
       <c r="A118" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:1">
       <c r="A119" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:1">
       <c r="A120" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:1">
       <c r="A121" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:1">
       <c r="A122" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:1">
       <c r="A123" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:1">
       <c r="A124" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:1">
       <c r="A125" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:1">
       <c r="A126" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:1">
       <c r="A127" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:1">
       <c r="A128" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:1">
       <c r="A129" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:1">
       <c r="A130" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:1">
       <c r="A131" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:1">
       <c r="A132" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:1">
       <c r="A133" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:1">
       <c r="A134" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:1">
       <c r="A135" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:1">
       <c r="A136" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:1">
       <c r="A137" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:1">
       <c r="A138" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:1">
       <c r="A139" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:1">
       <c r="A140" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:1">
       <c r="A141" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:1">
       <c r="A142" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:1">
       <c r="A143" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:1">
       <c r="A144" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:1">
       <c r="A145" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:1">
       <c r="A146" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:1">
       <c r="A147" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:1">
       <c r="A148" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:1">
       <c r="A149" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:1">
       <c r="A150" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:1">
       <c r="A151" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:1">
       <c r="A152" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:1">
       <c r="A153" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:1">
       <c r="A154" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:1">
       <c r="A155" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:1">
       <c r="A156" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:1">
       <c r="A157" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -4317,10 +5778,10 @@
   <dimension ref="A1:W48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B16"/>
+      <selection activeCell="B20" sqref="B2:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="25.06640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.19921875" bestFit="1" customWidth="1"/>
@@ -4331,7 +5792,7 @@
     <col min="9" max="26" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23">
       <c r="A1" s="5" t="s">
         <v>80</v>
       </c>
@@ -4387,7 +5848,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4395,14 +5856,14 @@
         <v>17</v>
       </c>
       <c r="C2" s="4">
-        <f>B2/156</f>
-        <v>0.10897435897435898</v>
+        <f>B2/158</f>
+        <v>0.10759493670886076</v>
       </c>
       <c r="F2" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -4410,8 +5871,8 @@
         <v>13</v>
       </c>
       <c r="C3" s="4">
-        <f>B3/156</f>
-        <v>8.3333333333333329E-2</v>
+        <f t="shared" ref="C3:C48" si="0">B3/158</f>
+        <v>8.2278481012658222E-2</v>
       </c>
       <c r="F3" s="7">
         <v>1</v>
@@ -4421,7 +5882,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -4429,44 +5890,44 @@
         <v>11</v>
       </c>
       <c r="C4" s="4">
-        <f>B4/156</f>
-        <v>7.0512820512820512E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.9620253164556958E-2</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
         <v>23</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4">
-        <f>B5/156</f>
-        <v>6.4102564102564097E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.9620253164556958E-2</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4">
-        <f>B6/156</f>
-        <v>6.4102564102564097E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.9620253164556958E-2</v>
       </c>
       <c r="F6" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -4474,14 +5935,14 @@
         <v>10</v>
       </c>
       <c r="C7" s="4">
-        <f>B7/156</f>
-        <v>6.4102564102564097E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.3291139240506333E-2</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -4489,14 +5950,14 @@
         <v>9</v>
       </c>
       <c r="C8" s="4">
-        <f>B8/156</f>
-        <v>5.7692307692307696E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.6962025316455694E-2</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -4504,14 +5965,14 @@
         <v>8</v>
       </c>
       <c r="C9" s="4">
-        <f>B9/156</f>
-        <v>5.128205128205128E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.0632911392405063E-2</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -4519,14 +5980,14 @@
         <v>6</v>
       </c>
       <c r="C10" s="4">
-        <f>B10/156</f>
-        <v>3.8461538461538464E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.7974683544303799E-2</v>
       </c>
       <c r="F10" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -4534,14 +5995,14 @@
         <v>6</v>
       </c>
       <c r="C11" s="4">
-        <f>B11/156</f>
-        <v>3.8461538461538464E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.7974683544303799E-2</v>
       </c>
       <c r="F11" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -4549,14 +6010,14 @@
         <v>5</v>
       </c>
       <c r="C12" s="4">
-        <f>B12/156</f>
-        <v>3.2051282051282048E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.1645569620253167E-2</v>
       </c>
       <c r="F12" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -4564,14 +6025,14 @@
         <v>5</v>
       </c>
       <c r="C13" s="4">
-        <f>B13/156</f>
-        <v>3.2051282051282048E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.1645569620253167E-2</v>
       </c>
       <c r="F13" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -4579,14 +6040,14 @@
         <v>4</v>
       </c>
       <c r="C14" s="4">
-        <f>B14/156</f>
-        <v>2.564102564102564E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.5316455696202531E-2</v>
       </c>
       <c r="F14" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -4594,14 +6055,14 @@
         <v>3</v>
       </c>
       <c r="C15" s="4">
-        <f>B15/156</f>
-        <v>1.9230769230769232E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.8987341772151899E-2</v>
       </c>
       <c r="F15" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -4609,14 +6070,14 @@
         <v>3</v>
       </c>
       <c r="C16" s="4">
-        <f>B16/156</f>
-        <v>1.9230769230769232E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.8987341772151899E-2</v>
       </c>
       <c r="F16" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -4624,14 +6085,14 @@
         <v>2</v>
       </c>
       <c r="C17" s="4">
-        <f>B17/156</f>
-        <v>1.282051282051282E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.2658227848101266E-2</v>
       </c>
       <c r="F17" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -4639,11 +6100,11 @@
         <v>2</v>
       </c>
       <c r="C18" s="4">
-        <f>B18/156</f>
-        <v>1.282051282051282E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>1.2658227848101266E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -4651,14 +6112,14 @@
         <v>2</v>
       </c>
       <c r="C19" s="4">
-        <f>B19/156</f>
-        <v>1.282051282051282E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.2658227848101266E-2</v>
       </c>
       <c r="F19" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -4666,11 +6127,11 @@
         <v>2</v>
       </c>
       <c r="C20" s="4">
-        <f>B20/156</f>
-        <v>1.282051282051282E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>1.2658227848101266E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -4678,8 +6139,8 @@
         <v>1</v>
       </c>
       <c r="C21" s="4">
-        <f>B21/156</f>
-        <v>6.41025641025641E-3</v>
+        <f t="shared" si="0"/>
+        <v>6.3291139240506328E-3</v>
       </c>
       <c r="D21" t="s">
         <v>82</v>
@@ -4688,7 +6149,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>73</v>
       </c>
@@ -4696,14 +6157,14 @@
         <v>1</v>
       </c>
       <c r="C22" s="4">
-        <f>B22/156</f>
-        <v>6.41025641025641E-3</v>
+        <f t="shared" si="0"/>
+        <v>6.3291139240506328E-3</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -4711,8 +6172,8 @@
         <v>1</v>
       </c>
       <c r="C23" s="4">
-        <f>B23/156</f>
-        <v>6.41025641025641E-3</v>
+        <f t="shared" si="0"/>
+        <v>6.3291139240506328E-3</v>
       </c>
       <c r="D23" t="s">
         <v>82</v>
@@ -4721,7 +6182,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -4729,8 +6190,8 @@
         <v>1</v>
       </c>
       <c r="C24" s="4">
-        <f>B24/156</f>
-        <v>6.41025641025641E-3</v>
+        <f t="shared" si="0"/>
+        <v>6.3291139240506328E-3</v>
       </c>
       <c r="D24" t="s">
         <v>82</v>
@@ -4739,7 +6200,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -4747,8 +6208,8 @@
         <v>1</v>
       </c>
       <c r="C25" s="4">
-        <f>B25/156</f>
-        <v>6.41025641025641E-3</v>
+        <f t="shared" si="0"/>
+        <v>6.3291139240506328E-3</v>
       </c>
       <c r="D25" t="s">
         <v>82</v>
@@ -4757,7 +6218,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -4765,11 +6226,11 @@
         <v>1</v>
       </c>
       <c r="C26" s="4">
-        <f>B26/156</f>
-        <v>6.41025641025641E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>6.3291139240506328E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -4777,8 +6238,8 @@
         <v>1</v>
       </c>
       <c r="C27" s="4">
-        <f>B27/156</f>
-        <v>6.41025641025641E-3</v>
+        <f t="shared" si="0"/>
+        <v>6.3291139240506328E-3</v>
       </c>
       <c r="D27" t="s">
         <v>82</v>
@@ -4787,7 +6248,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -4795,8 +6256,8 @@
         <v>1</v>
       </c>
       <c r="C28" s="4">
-        <f>B28/156</f>
-        <v>6.41025641025641E-3</v>
+        <f t="shared" si="0"/>
+        <v>6.3291139240506328E-3</v>
       </c>
       <c r="D28" t="s">
         <v>82</v>
@@ -4805,7 +6266,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -4813,11 +6274,11 @@
         <v>1</v>
       </c>
       <c r="C29" s="4">
-        <f>B29/156</f>
-        <v>6.41025641025641E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>6.3291139240506328E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>90</v>
       </c>
@@ -4825,11 +6286,11 @@
         <v>1</v>
       </c>
       <c r="C30" s="4">
-        <f>B30/156</f>
-        <v>6.41025641025641E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>6.3291139240506328E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>89</v>
       </c>
@@ -4837,11 +6298,11 @@
         <v>1</v>
       </c>
       <c r="C31" s="4">
-        <f>B31/156</f>
-        <v>6.41025641025641E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>6.3291139240506328E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -4849,8 +6310,8 @@
         <v>1</v>
       </c>
       <c r="C32" s="4">
-        <f>B32/156</f>
-        <v>6.41025641025641E-3</v>
+        <f t="shared" si="0"/>
+        <v>6.3291139240506328E-3</v>
       </c>
       <c r="D32" t="s">
         <v>82</v>
@@ -4859,7 +6320,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -4867,11 +6328,11 @@
         <v>1</v>
       </c>
       <c r="C33" s="4">
-        <f>B33/156</f>
-        <v>6.41025641025641E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>6.3291139240506328E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>60</v>
       </c>
@@ -4879,14 +6340,14 @@
         <v>1</v>
       </c>
       <c r="C34" s="4">
-        <f>B34/156</f>
-        <v>6.41025641025641E-3</v>
+        <f t="shared" si="0"/>
+        <v>6.3291139240506328E-3</v>
       </c>
       <c r="D34" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -4894,11 +6355,11 @@
         <v>1</v>
       </c>
       <c r="C35" s="4">
-        <f>B35/156</f>
-        <v>6.41025641025641E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>6.3291139240506328E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>75</v>
       </c>
@@ -4906,14 +6367,14 @@
         <v>1</v>
       </c>
       <c r="C36" s="4">
-        <f>B36/156</f>
-        <v>6.41025641025641E-3</v>
+        <f t="shared" si="0"/>
+        <v>6.3291139240506328E-3</v>
       </c>
       <c r="E36" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -4921,11 +6382,11 @@
         <v>1</v>
       </c>
       <c r="C37" s="4">
-        <f>B37/156</f>
-        <v>6.41025641025641E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>6.3291139240506328E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -4933,11 +6394,11 @@
         <v>1</v>
       </c>
       <c r="C38" s="4">
-        <f>B38/156</f>
-        <v>6.41025641025641E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>6.3291139240506328E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>68</v>
       </c>
@@ -4945,11 +6406,11 @@
         <v>1</v>
       </c>
       <c r="C39" s="4">
-        <f>B39/156</f>
-        <v>6.41025641025641E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>6.3291139240506328E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -4957,14 +6418,14 @@
         <v>1</v>
       </c>
       <c r="C40" s="4">
-        <f>B40/156</f>
-        <v>6.41025641025641E-3</v>
+        <f t="shared" si="0"/>
+        <v>6.3291139240506328E-3</v>
       </c>
       <c r="D40" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -4972,14 +6433,14 @@
         <v>1</v>
       </c>
       <c r="C41" s="4">
-        <f>B41/156</f>
-        <v>6.41025641025641E-3</v>
+        <f t="shared" si="0"/>
+        <v>6.3291139240506328E-3</v>
       </c>
       <c r="D41" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -4987,14 +6448,14 @@
         <v>1</v>
       </c>
       <c r="C42" s="4">
-        <f>B42/156</f>
-        <v>6.41025641025641E-3</v>
+        <f t="shared" si="0"/>
+        <v>6.3291139240506328E-3</v>
       </c>
       <c r="D42" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -5002,14 +6463,14 @@
         <v>1</v>
       </c>
       <c r="C43" s="4">
-        <f>B43/156</f>
-        <v>6.41025641025641E-3</v>
+        <f t="shared" si="0"/>
+        <v>6.3291139240506328E-3</v>
       </c>
       <c r="D43" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>88</v>
       </c>
@@ -5017,11 +6478,11 @@
         <v>1</v>
       </c>
       <c r="C44" s="4">
-        <f>B44/156</f>
-        <v>6.41025641025641E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>6.3291139240506328E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -5029,11 +6490,11 @@
         <v>1</v>
       </c>
       <c r="C45" s="4">
-        <f>B45/156</f>
-        <v>6.41025641025641E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>6.3291139240506328E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>69</v>
       </c>
@@ -5041,14 +6502,14 @@
         <v>1</v>
       </c>
       <c r="C46" s="4">
-        <f>B46/156</f>
-        <v>6.41025641025641E-3</v>
+        <f t="shared" si="0"/>
+        <v>6.3291139240506328E-3</v>
       </c>
       <c r="E46" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -5056,14 +6517,14 @@
         <v>1</v>
       </c>
       <c r="C47" s="4">
-        <f>B47/156</f>
-        <v>6.41025641025641E-3</v>
+        <f t="shared" si="0"/>
+        <v>6.3291139240506328E-3</v>
       </c>
       <c r="D47" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>107</v>
       </c>
@@ -5071,8 +6532,8 @@
         <v>1</v>
       </c>
       <c r="C48" s="4">
-        <f>B48/156</f>
-        <v>6.41025641025641E-3</v>
+        <f t="shared" si="0"/>
+        <v>6.3291139240506328E-3</v>
       </c>
     </row>
   </sheetData>
@@ -5100,1777 +6561,2411 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC4A8CA7-17E9-4367-ABB6-272E19E6DCF4}">
-  <dimension ref="A1:V48"/>
+  <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="topRight" activeCell="R32" sqref="R32"/>
+      <selection pane="topRight" activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="32.19921875" customWidth="1"/>
-    <col min="2" max="2" width="17.796875" customWidth="1"/>
-    <col min="3" max="3" width="21.9296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.06640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.46484375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.06640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.3984375" customWidth="1"/>
-    <col min="8" max="8" width="11.53125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="17.265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.59765625" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.1328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.1328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.19921875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.06640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="18" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18" ht="14.65" thickBot="1">
+      <c r="A1" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
+      <c r="B1" s="69">
+        <v>1</v>
+      </c>
+      <c r="C1" s="69">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="69">
         <v>3</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="69">
         <v>4</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="69">
         <v>5</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="69">
         <v>6</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="69">
         <v>7</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="69">
         <v>8</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="69">
         <v>9</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="69">
         <v>10</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="69">
         <v>11</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="69">
         <v>12</v>
       </c>
-      <c r="N1">
+      <c r="N1" s="69">
         <v>13</v>
       </c>
-      <c r="O1">
+      <c r="O1" s="69">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A2" s="19" t="s">
+      <c r="P1" s="69">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19">
-        <v>1</v>
-      </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19">
-        <v>1</v>
-      </c>
-      <c r="M2" s="19">
-        <v>1</v>
-      </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A3" s="9" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50">
+        <v>1</v>
+      </c>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50">
+        <v>1</v>
+      </c>
+      <c r="M2" s="50">
+        <v>1</v>
+      </c>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="62"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9">
-        <v>1</v>
-      </c>
-      <c r="I3" s="9">
-        <v>1</v>
-      </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9">
-        <v>1</v>
-      </c>
-      <c r="L3" s="9">
-        <v>1</v>
-      </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A4" s="10" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13">
+        <v>1</v>
+      </c>
+      <c r="I3" s="13">
+        <v>1</v>
+      </c>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13">
+        <v>1</v>
+      </c>
+      <c r="L3" s="13">
+        <v>1</v>
+      </c>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13">
+        <v>1</v>
+      </c>
+      <c r="P3" s="14"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10">
-        <v>1</v>
-      </c>
-      <c r="E4" s="10">
-        <v>1</v>
-      </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10">
-        <v>1</v>
-      </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10">
-        <v>1</v>
-      </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10">
-        <v>1</v>
-      </c>
-      <c r="N4" s="10">
-        <v>1</v>
-      </c>
-      <c r="O4" s="10"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="B4" s="43"/>
+      <c r="C4" s="43">
+        <v>1</v>
+      </c>
+      <c r="D4" s="43">
+        <v>1</v>
+      </c>
+      <c r="E4" s="43">
+        <v>1</v>
+      </c>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43">
+        <v>1</v>
+      </c>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43">
+        <v>1</v>
+      </c>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43">
+        <v>1</v>
+      </c>
+      <c r="N4" s="43">
+        <v>1</v>
+      </c>
+      <c r="O4" s="43">
+        <v>1</v>
+      </c>
+      <c r="P4" s="63"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+      <c r="O5" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="N6" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="47" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="B7" s="13" t="s">
+      <c r="P6" s="64" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="18"/>
+      <c r="B7" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="L7" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="M7" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="N7" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="P7" s="36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="18"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="34"/>
+      <c r="J8" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="C8" s="10" t="s">
+      <c r="L8" s="34"/>
+      <c r="M8" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="N8" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="O8" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="9" t="s">
+      <c r="P8" s="51"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="18"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="34"/>
+      <c r="F9" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" s="34"/>
+      <c r="J9" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="D9" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="L9" s="9" t="s">
+      <c r="M9" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" s="34"/>
+      <c r="O9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A10" s="11" t="s">
+      <c r="P9" s="51"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="11">
-        <v>1</v>
-      </c>
-      <c r="C10" s="11">
-        <v>1</v>
-      </c>
-      <c r="D10" s="11">
-        <v>1</v>
-      </c>
-      <c r="E10" s="11">
-        <v>1</v>
-      </c>
-      <c r="F10" s="11">
-        <v>1</v>
-      </c>
-      <c r="G10" s="11">
-        <v>1</v>
-      </c>
-      <c r="H10" s="11">
-        <v>1</v>
-      </c>
-      <c r="I10" s="11">
-        <v>1</v>
-      </c>
-      <c r="J10" s="11">
-        <v>1</v>
-      </c>
-      <c r="K10" s="11">
-        <v>1</v>
-      </c>
-      <c r="L10" s="11">
-        <v>1</v>
-      </c>
-      <c r="M10" s="11">
-        <v>1</v>
-      </c>
-      <c r="N10" s="11">
-        <v>1</v>
-      </c>
-      <c r="O10" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A11" s="13" t="s">
+      <c r="B10" s="47">
+        <v>1</v>
+      </c>
+      <c r="C10" s="47">
+        <v>1</v>
+      </c>
+      <c r="D10" s="47">
+        <v>1</v>
+      </c>
+      <c r="E10" s="47">
+        <v>1</v>
+      </c>
+      <c r="F10" s="47">
+        <v>1</v>
+      </c>
+      <c r="G10" s="47">
+        <v>1</v>
+      </c>
+      <c r="H10" s="47">
+        <v>1</v>
+      </c>
+      <c r="I10" s="47">
+        <v>1</v>
+      </c>
+      <c r="J10" s="47">
+        <v>1</v>
+      </c>
+      <c r="K10" s="47">
+        <v>1</v>
+      </c>
+      <c r="L10" s="47">
+        <v>1</v>
+      </c>
+      <c r="M10" s="47">
+        <v>1</v>
+      </c>
+      <c r="N10" s="47">
+        <v>1</v>
+      </c>
+      <c r="O10" s="47">
+        <v>1</v>
+      </c>
+      <c r="P10" s="53"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="13">
-        <v>1</v>
-      </c>
-      <c r="C11" s="13">
-        <v>1</v>
-      </c>
-      <c r="D11" s="13">
-        <v>1</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13">
-        <v>1</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13">
-        <v>1</v>
-      </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13">
-        <v>1</v>
-      </c>
-      <c r="N11" s="13">
-        <v>1</v>
-      </c>
-      <c r="O11" s="13"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A12" s="12" t="s">
+      <c r="B11" s="55">
+        <v>1</v>
+      </c>
+      <c r="C11" s="55">
+        <v>1</v>
+      </c>
+      <c r="D11" s="55">
+        <v>1</v>
+      </c>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55">
+        <v>1</v>
+      </c>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55">
+        <v>1</v>
+      </c>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55">
+        <v>1</v>
+      </c>
+      <c r="N11" s="55">
+        <v>1</v>
+      </c>
+      <c r="O11" s="55"/>
+      <c r="P11" s="56"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12">
-        <v>1</v>
-      </c>
-      <c r="G12" s="12">
-        <v>1</v>
-      </c>
-      <c r="H12" s="12">
-        <v>1</v>
-      </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12">
-        <v>1</v>
-      </c>
-      <c r="K12" s="12">
-        <v>1</v>
-      </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65">
+        <v>1</v>
+      </c>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65">
+        <v>1</v>
+      </c>
+      <c r="G12" s="65">
+        <v>1</v>
+      </c>
+      <c r="H12" s="65">
+        <v>1</v>
+      </c>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65">
+        <v>1</v>
+      </c>
+      <c r="K12" s="65">
+        <v>1</v>
+      </c>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="14.65" thickBot="1">
+      <c r="A13" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59">
+        <v>1</v>
+      </c>
+      <c r="P13" s="60">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>114</v>
+      </c>
+      <c r="R13">
+        <f>SUM(S2:S12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" t="s">
         <v>106</v>
       </c>
-      <c r="B13" t="str">
-        <f>IF(SUM(B2,B3,B4,B10,B11,B12)=COUNTIF(B6:B9,"&lt;&gt;"),"","NO")</f>
+      <c r="B14" t="str">
+        <f>IF(SUM(B2,B3,B4,B10,B11,B12,B13)=COUNTIF(B6:B9,"&lt;&gt;"),"","NO")</f>
         <v/>
       </c>
-      <c r="C13" t="str">
-        <f t="shared" ref="C13:K13" si="0">IF(SUM(C2,C3,C4,C10,C11,C12)=COUNTIF(C6:C9,"&lt;&gt;"),"","NO")</f>
+      <c r="C14" t="str">
+        <f t="shared" ref="C14:Q14" si="0">IF(SUM(C2,C3,C4,C10,C11,C12,C13)=COUNTIF(C6:C9,"&lt;&gt;"),"","NO")</f>
         <v/>
       </c>
-      <c r="D13" t="str">
+      <c r="D14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E13" t="str">
+      <c r="E14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F13" t="str">
+      <c r="F14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G13" t="str">
+      <c r="G14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H13" t="str">
+      <c r="H14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I13" t="str">
+      <c r="I14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J13" t="str">
+      <c r="J14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K13" t="str">
+      <c r="K14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L13" t="str">
-        <f t="shared" ref="L13" si="1">IF(SUM(L2,L3,L4,L10,L11,L12)=COUNTIF(L6:L9,"&lt;&gt;"),"","NO")</f>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M13" t="str">
-        <f t="shared" ref="M13" si="2">IF(SUM(M2,M3,M4,M10,M11,M12)=COUNTIF(M6:M9,"&lt;&gt;"),"","NO")</f>
+      <c r="M14" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N13" t="str">
-        <f t="shared" ref="N13" si="3">IF(SUM(N2,N3,N4,N10,N11,N12)=COUNTIF(N6:N9,"&lt;&gt;"),"","NO")</f>
+      <c r="N14" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O13" t="str">
-        <f t="shared" ref="O13" si="4">IF(SUM(O2,O3,O4,O10,O11,O12)=COUNTIF(O6:O9,"&lt;&gt;"),"","NO")</f>
+      <c r="O14" t="e">
+        <f>IF(SUM(#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!)=COUNTIF(#REF!,"&lt;&gt;"),"","NO")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P14" t="str">
+        <f>IF(SUM(O2,O3,O4,O10,O11,O12,O13)=COUNTIF(O6:O9,"&lt;&gt;"),"","NO")</f>
         <v/>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+      <c r="Q14" t="str">
+        <f>IF(SUM(P2,P3,P4,P10,P11,P12,P13)=COUNTIF(P6:P9,"&lt;&gt;"),"","NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="14.65" thickBot="1"/>
+    <row r="16" spans="1:18" ht="14.65" thickBot="1">
+      <c r="A16" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
+      <c r="B16" s="69">
+        <v>1</v>
+      </c>
+      <c r="C16" s="69">
         <v>2</v>
       </c>
-      <c r="D15">
+      <c r="D16" s="69">
         <v>3</v>
       </c>
-      <c r="E15">
+      <c r="E16" s="69">
         <v>4</v>
       </c>
-      <c r="F15">
+      <c r="F16" s="69">
         <v>5</v>
       </c>
-      <c r="G15">
+      <c r="G16" s="69">
         <v>6</v>
       </c>
-      <c r="H15">
+      <c r="H16" s="69">
         <v>7</v>
       </c>
-      <c r="I15">
+      <c r="I16" s="69">
         <v>8</v>
       </c>
-      <c r="J15">
+      <c r="J16" s="69">
         <v>9</v>
       </c>
-      <c r="L15">
+      <c r="K16" s="69">
         <v>10</v>
       </c>
-      <c r="M15">
+      <c r="L16" s="69">
         <v>11</v>
       </c>
-      <c r="N15">
+      <c r="M16" s="69">
         <v>12</v>
       </c>
-      <c r="O15">
+      <c r="N16" s="69">
         <v>13</v>
       </c>
-      <c r="P15">
+      <c r="O16" s="69">
         <v>14</v>
       </c>
-      <c r="Q15">
+      <c r="P16" s="69">
         <v>15</v>
       </c>
-      <c r="R15">
+      <c r="Q16" s="69">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A16" s="8" t="s">
+    <row r="17" spans="1:23">
+      <c r="A17" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8">
-        <v>1</v>
-      </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8">
-        <v>1</v>
-      </c>
-      <c r="L16" s="8"/>
-      <c r="M16" s="26">
-        <v>1</v>
-      </c>
-      <c r="N16" s="26">
-        <v>1</v>
-      </c>
-      <c r="O16" s="26">
-        <v>1</v>
-      </c>
-      <c r="P16" s="26">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11">
+        <v>1</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11">
+        <v>1</v>
+      </c>
+      <c r="K17" s="11"/>
+      <c r="L17" s="26">
+        <v>1</v>
+      </c>
+      <c r="M17" s="26">
+        <v>1</v>
+      </c>
+      <c r="N17" s="26">
+        <v>1</v>
+      </c>
+      <c r="O17" s="26">
+        <v>1</v>
+      </c>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A17" s="9" t="s">
+    <row r="18" spans="1:23">
+      <c r="A18" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9">
-        <v>1</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9">
-        <v>1</v>
-      </c>
-      <c r="G17" s="9">
-        <v>1</v>
-      </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9">
-        <v>1</v>
-      </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9">
-        <v>1</v>
-      </c>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A18" s="10" t="s">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13">
+        <v>1</v>
+      </c>
+      <c r="E18" s="13">
+        <v>1</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13">
+        <v>1</v>
+      </c>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13">
+        <v>1</v>
+      </c>
+      <c r="J18" s="13">
+        <v>1</v>
+      </c>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="B18" s="10">
-        <v>1</v>
-      </c>
-      <c r="C18" s="10">
-        <v>1</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10">
-        <v>1</v>
-      </c>
-      <c r="G18" s="10">
-        <v>1</v>
-      </c>
-      <c r="H18" s="10">
-        <v>1</v>
-      </c>
-      <c r="I18" s="10">
-        <v>1</v>
-      </c>
-      <c r="J18" s="24">
-        <v>1</v>
-      </c>
-      <c r="K18" s="24">
-        <v>1</v>
-      </c>
-      <c r="L18" s="24">
-        <v>1</v>
-      </c>
-      <c r="M18" s="24">
-        <v>1</v>
-      </c>
-      <c r="N18" s="24">
-        <v>1</v>
-      </c>
-      <c r="O18" s="24">
-        <v>1</v>
-      </c>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24">
-        <v>1</v>
-      </c>
-      <c r="R18" s="24"/>
-      <c r="S18" t="s">
+      <c r="B19" s="43">
+        <v>1</v>
+      </c>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43">
+        <v>1</v>
+      </c>
+      <c r="E19" s="43">
+        <v>1</v>
+      </c>
+      <c r="F19" s="43">
+        <v>1</v>
+      </c>
+      <c r="G19" s="43">
+        <v>1</v>
+      </c>
+      <c r="H19" s="28">
+        <v>1</v>
+      </c>
+      <c r="I19" s="28">
+        <v>0</v>
+      </c>
+      <c r="J19" s="28">
+        <v>1</v>
+      </c>
+      <c r="K19" s="28">
+        <v>1</v>
+      </c>
+      <c r="L19" s="28">
+        <v>1</v>
+      </c>
+      <c r="M19" s="28">
+        <v>1</v>
+      </c>
+      <c r="N19" s="28">
+        <v>1</v>
+      </c>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B19" s="15" t="s">
+    <row r="20" spans="1:23">
+      <c r="A20" s="18"/>
+      <c r="B20" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" s="15" t="s">
+      <c r="C20" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="D20" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="E20" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="F20" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="G20" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J19" s="21" t="s">
+      <c r="H20" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="K19" s="21" t="s">
+      <c r="I20" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="L19" s="21" t="s">
+      <c r="K20" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="M19" s="21" t="s">
+      <c r="L20" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="N19" s="21" t="s">
+      <c r="M20" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="O19" s="21" t="s">
+      <c r="N20" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="P19" s="21" t="s">
+      <c r="O20" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="Q19" s="21" t="s">
+      <c r="P20" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="R19" s="21" t="s">
+      <c r="Q20" s="45" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B20" s="18" t="s">
+    <row r="21" spans="1:23">
+      <c r="A21" s="18"/>
+      <c r="B21" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C21" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="17" t="s">
+      <c r="I21" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="J21" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="17" t="s">
+      <c r="K21" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="17" t="s">
+      <c r="L21" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="M21" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="O21" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="17" t="s">
+      <c r="P21" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q21" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="L20" s="17" t="s">
+      <c r="R21" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="18"/>
+      <c r="B22" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="L22" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="M22" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="P22" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="M20" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="N20" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="O20" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="P20" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="R20" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B21" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="24" t="s">
+      <c r="Q22" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="R22" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="18"/>
+      <c r="B23" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="I23" s="34"/>
+      <c r="J23" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="K21" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="M21" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="N21" t="s">
-        <v>4</v>
-      </c>
-      <c r="O21" t="s">
-        <v>4</v>
-      </c>
-      <c r="P21" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q21" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="R21" s="9" t="s">
+      <c r="K23" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="L23" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="M23" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="N23" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="O23" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="P23" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="18"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" t="s">
-        <v>9</v>
-      </c>
-      <c r="I22" t="s">
-        <v>9</v>
-      </c>
-      <c r="J22" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="K22" s="24" t="s">
+      <c r="E24" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="30"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="L22" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="M22" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="N22" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="O22" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="P22" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q22" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="C23" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J23" s="22"/>
-      <c r="K23" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L23" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="M23" s="18" t="s">
+      <c r="L24" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="N23" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="O23" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q23" s="18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="J24" s="22"/>
       <c r="M24" s="26" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A25" s="11" t="s">
+      <c r="N24" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="O24" s="34"/>
+      <c r="P24" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="S24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="18"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="30"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11">
-        <v>1</v>
-      </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11">
-        <v>1</v>
-      </c>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="11">
-        <v>1</v>
-      </c>
-      <c r="R25" s="11"/>
-      <c r="V25" s="22"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A26" s="13" t="s">
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47">
+        <v>1</v>
+      </c>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="47">
+        <v>1</v>
+      </c>
+      <c r="P26" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="W26" s="8"/>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="14">
-        <v>1</v>
-      </c>
-      <c r="F26" s="14">
-        <v>1</v>
-      </c>
-      <c r="G26" s="14">
-        <v>1</v>
-      </c>
-      <c r="H26" s="14">
-        <v>1</v>
-      </c>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13">
-        <v>1</v>
-      </c>
-      <c r="O26" s="13">
-        <v>1</v>
-      </c>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A27" s="17" t="s">
+      <c r="B27" s="55"/>
+      <c r="C27" s="49">
+        <v>1</v>
+      </c>
+      <c r="D27" s="49">
+        <v>1</v>
+      </c>
+      <c r="E27" s="49">
+        <v>1</v>
+      </c>
+      <c r="F27" s="49">
+        <v>1</v>
+      </c>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55">
+        <v>1</v>
+      </c>
+      <c r="N27" s="55">
+        <v>1</v>
+      </c>
+      <c r="O27" s="55"/>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17">
-        <v>1</v>
-      </c>
-      <c r="G27" s="17">
-        <v>1</v>
-      </c>
-      <c r="H27" s="17">
-        <v>1</v>
-      </c>
-      <c r="I27" s="17">
-        <v>1</v>
-      </c>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17">
-        <v>1</v>
-      </c>
-      <c r="L27" s="17">
-        <v>1</v>
-      </c>
-      <c r="M27" s="17">
-        <v>1</v>
-      </c>
-      <c r="N27" s="17">
-        <v>1</v>
-      </c>
-      <c r="O27" s="17">
-        <v>1</v>
-      </c>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A28" s="18" t="s">
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46">
+        <v>1</v>
+      </c>
+      <c r="E28" s="46">
+        <v>1</v>
+      </c>
+      <c r="F28" s="46">
+        <v>1</v>
+      </c>
+      <c r="G28" s="46">
+        <v>1</v>
+      </c>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46">
+        <v>1</v>
+      </c>
+      <c r="J28" s="46">
+        <v>1</v>
+      </c>
+      <c r="K28" s="46">
+        <v>1</v>
+      </c>
+      <c r="L28" s="46">
+        <v>1</v>
+      </c>
+      <c r="M28" s="46">
+        <v>1</v>
+      </c>
+      <c r="N28" s="46">
+        <v>1</v>
+      </c>
+      <c r="O28" s="46"/>
+      <c r="P28" s="46"/>
+      <c r="Q28" s="48">
+        <v>1</v>
+      </c>
+      <c r="R28" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="14.65" thickBot="1">
+      <c r="A29" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B29" s="59">
         <v>2</v>
       </c>
-      <c r="C28" s="18">
-        <v>1</v>
-      </c>
-      <c r="D28" s="18">
+      <c r="C29" s="59">
+        <v>1</v>
+      </c>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59">
+        <v>1</v>
+      </c>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59">
+        <v>1</v>
+      </c>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="59">
         <v>2</v>
       </c>
-      <c r="E28" s="18">
-        <v>1</v>
-      </c>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18">
-        <v>1</v>
-      </c>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18">
-        <v>1</v>
-      </c>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18">
+      <c r="L29" s="59">
         <v>2</v>
       </c>
-      <c r="M28" s="18">
+      <c r="M29" s="59"/>
+      <c r="N29" s="59"/>
+      <c r="O29" s="59">
+        <v>1</v>
+      </c>
+      <c r="P29" s="59">
         <v>2</v>
       </c>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="18">
+      <c r="Q29" s="60"/>
+      <c r="R29" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="S29">
+        <f>SUM(S21:S28)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" s="8" customFormat="1">
+      <c r="A30" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" s="8" t="str">
+        <f>IF(SUM(B17,B18,B19,B26,B27,B28,B29)=COUNTIF(B21:B25,"&lt;&gt;"),"","NO")</f>
+        <v/>
+      </c>
+      <c r="C30" s="8" t="str">
+        <f>IF(SUM(O2,O3,O4,O10,O11,O12,O13)=COUNTIF(O6:O9,"&lt;&gt;"),"","NO")</f>
+        <v/>
+      </c>
+      <c r="D30" s="8" t="str">
+        <f>IF(SUM(P2,P3,P4,P10,P11,P12,P13)=COUNTIF(P6:P9,"&lt;&gt;"),"","NO")</f>
+        <v/>
+      </c>
+      <c r="E30" s="8" t="str">
+        <f t="shared" ref="E30:R30" si="1">IF(SUM(C17,C18,C19,C26,C27,C28,C29)=COUNTIF(C21:C25,"&lt;&gt;"),"","NO")</f>
+        <v/>
+      </c>
+      <c r="F30" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G30" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H30" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I30" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J30" s="8" t="str">
+        <f>IF(SUM(G17,G18,G19,G26,G27,G28,G29)=COUNTIF(G21:G25,"&lt;&gt;"),"","NO")</f>
+        <v/>
+      </c>
+      <c r="K30" s="8" t="str">
+        <f>IF(SUM(H17,H18,H19,H26,H27,H28,H29)=COUNTIF(H21:H25,"&lt;&gt;"),"","NO")</f>
+        <v/>
+      </c>
+      <c r="L30" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M30" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N30" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O30" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P30" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q30" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R30" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S30" s="8" t="str">
+        <f>IF(SUM(R17,Q18,R19,Q26,Q27,Q28,Q29)=COUNTIF(Q21:Q25,"&lt;&gt;"),"","NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="14.65" thickBot="1"/>
+    <row r="32" spans="1:23" ht="14.65" thickBot="1">
+      <c r="A32" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="69">
+        <v>1</v>
+      </c>
+      <c r="C32" s="69">
         <v>2</v>
       </c>
-      <c r="R28" s="18"/>
-    </row>
-    <row r="29" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="22" t="s">
+      <c r="D32" s="69">
+        <v>3</v>
+      </c>
+      <c r="E32" s="69">
+        <v>4</v>
+      </c>
+      <c r="F32" s="69">
+        <v>5</v>
+      </c>
+      <c r="G32" s="69">
+        <v>6</v>
+      </c>
+      <c r="H32" s="69">
+        <v>7</v>
+      </c>
+      <c r="I32" s="69">
+        <v>8</v>
+      </c>
+      <c r="J32" s="69">
+        <v>9</v>
+      </c>
+      <c r="K32" s="69">
+        <v>10</v>
+      </c>
+      <c r="L32" s="69">
+        <v>11</v>
+      </c>
+      <c r="M32" s="69">
+        <v>12</v>
+      </c>
+      <c r="N32" s="69">
+        <v>13</v>
+      </c>
+      <c r="O32" s="69">
+        <v>14</v>
+      </c>
+      <c r="P32" s="69">
+        <v>15</v>
+      </c>
+      <c r="Q32" s="70">
+        <v>16</v>
+      </c>
+      <c r="R32" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="72"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72">
+        <v>1</v>
+      </c>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72">
+        <v>1</v>
+      </c>
+      <c r="G33" s="72">
+        <v>1</v>
+      </c>
+      <c r="H33" s="72">
+        <v>1</v>
+      </c>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72">
+        <v>1</v>
+      </c>
+      <c r="K33" s="72"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="72"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="72"/>
+      <c r="P33" s="72"/>
+      <c r="Q33" s="73">
+        <v>1</v>
+      </c>
+      <c r="R33" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="S33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13">
+        <v>1</v>
+      </c>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13">
+        <v>1</v>
+      </c>
+      <c r="H34" s="13">
+        <v>1</v>
+      </c>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13">
+        <v>1</v>
+      </c>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16">
+        <v>1</v>
+      </c>
+      <c r="D35" s="16">
+        <v>1</v>
+      </c>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16">
+        <v>1</v>
+      </c>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" s="18"/>
+      <c r="B36" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="J36" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="K36" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="L36" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="M36" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="N36" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="O36" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="P36" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q36" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="R36" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="S36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" s="18"/>
+      <c r="B37" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H37" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="I37" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="J37" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="K37" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="L37" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="M37" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="N37" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="O37" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="P37" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q37" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="R37" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38" s="18"/>
+      <c r="B38" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H38" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="I38" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="J38" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="K38" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="L38" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="M38" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="N38" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="O38" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="P38" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q38" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="R38" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39" s="18"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="30"/>
+      <c r="F39" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G39" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H39" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="I39" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="J39" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="K39" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="L39" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="M39" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="N39" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="O39" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="P39" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q39" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="R39" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="S39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" s="18"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H40" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I40" s="34"/>
+      <c r="J40" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="N40" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="O40" s="34"/>
+      <c r="P40" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q40" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="R40" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="S40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="A41" s="18"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="34"/>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="R41" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="S41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="A42" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23">
+        <v>1</v>
+      </c>
+      <c r="H42" s="23">
+        <v>1</v>
+      </c>
+      <c r="I42" s="23">
+        <v>1</v>
+      </c>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23">
+        <v>1</v>
+      </c>
+      <c r="L42" s="23"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="23">
+        <v>1</v>
+      </c>
+      <c r="O42" s="23"/>
+      <c r="P42" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="25">
+        <v>1</v>
+      </c>
+      <c r="R42" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="S42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="A43" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32">
+        <v>1</v>
+      </c>
+      <c r="M43" s="32"/>
+      <c r="N43" s="32">
+        <v>1</v>
+      </c>
+      <c r="O43" s="32">
+        <v>1</v>
+      </c>
+      <c r="P43" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="35">
+        <v>1</v>
+      </c>
+      <c r="R43" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="S43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="A44" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27">
+        <v>1</v>
+      </c>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27">
+        <v>1</v>
+      </c>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27">
+        <v>1</v>
+      </c>
+      <c r="N44" s="27">
+        <v>1</v>
+      </c>
+      <c r="O44" s="27"/>
+      <c r="P44" s="27">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="29">
+        <v>1</v>
+      </c>
+      <c r="R44" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="S44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="14.65" thickBot="1">
+      <c r="A45" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" s="59">
+        <v>2</v>
+      </c>
+      <c r="C45" s="59">
+        <v>1</v>
+      </c>
+      <c r="D45" s="59">
+        <v>1</v>
+      </c>
+      <c r="E45" s="59">
+        <v>2</v>
+      </c>
+      <c r="F45" s="59">
+        <v>1</v>
+      </c>
+      <c r="G45" s="59">
+        <v>1</v>
+      </c>
+      <c r="H45" s="59">
+        <v>0</v>
+      </c>
+      <c r="I45" s="59">
+        <v>2</v>
+      </c>
+      <c r="J45" s="59">
+        <v>3</v>
+      </c>
+      <c r="K45" s="59">
+        <v>1</v>
+      </c>
+      <c r="L45" s="59">
+        <v>2</v>
+      </c>
+      <c r="M45" s="59">
+        <v>3</v>
+      </c>
+      <c r="N45" s="59">
+        <v>1</v>
+      </c>
+      <c r="O45" s="59">
+        <v>2</v>
+      </c>
+      <c r="P45" s="59">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="60">
+        <v>1</v>
+      </c>
+      <c r="R45" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="S45">
+        <f>SUM(S32:S44)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="A46" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="22" t="str">
-        <f>IF(SUM(B16,B17,B18,B25,B26,B27,B28)=COUNTIF(B20:B24,"&lt;&gt;"),"","NO")</f>
+      <c r="B46" s="34" t="str">
+        <f>IF(SUM(B33,B34,B35,O20,B42,B43,B44,B45)=COUNTIF(B37:B41,"&lt;&gt;"),"","NO")</f>
         <v/>
       </c>
-      <c r="C29" s="22" t="str">
-        <f t="shared" ref="C29:E29" si="5">IF(SUM(C16,C17,C18,C25,C26,C27,C28)=COUNTIF(C20:C24,"&lt;&gt;"),"","NO")</f>
+      <c r="C46" s="34" t="str">
+        <f>IF(SUM(C33,C34,C35,P20,C42,C43,C44,C45)=COUNTIF(C37:C41,"&lt;&gt;"),"","NO")</f>
         <v/>
       </c>
-      <c r="D29" s="22" t="str">
-        <f t="shared" si="5"/>
+      <c r="D46" s="34" t="str">
+        <f>IF(SUM(D33,D34,D35,Q20,D42,D43,D44,D45)=COUNTIF(D37:D41,"&lt;&gt;"),"","NO")</f>
         <v/>
       </c>
-      <c r="E29" s="22" t="str">
-        <f t="shared" ref="E29:R29" si="6">IF(SUM(E16,E17,E18,E25,E26,E27,E28)=COUNTIF(E20:E24,"&lt;&gt;"),"","NO")</f>
+      <c r="E46" s="34" t="str">
+        <f>IF(SUM(E33,E34,E35,R20,E42,E43,E44,E45)=COUNTIF(E37:E41,"&lt;&gt;"),"","NO")</f>
         <v/>
       </c>
-      <c r="F29" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="F46" s="34" t="str">
+        <f>IF(SUM(F33,F34,F35,U20,F42,F43,F44,F45)=COUNTIF(F37:F41,"&lt;&gt;"),"","NO")</f>
         <v/>
       </c>
-      <c r="G29" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="G46" s="34" t="str">
+        <f>IF(SUM(G33,G34,G35,V20,G42,G43,G44,G45)=COUNTIF(G37:G41,"&lt;&gt;"),"","NO")</f>
         <v/>
       </c>
-      <c r="H29" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="H46" s="34" t="str">
+        <f>IF(SUM(H33,H34,H35,W20,H42,H43,H44,H45)=COUNTIF(H37:H41,"&lt;&gt;"),"","NO")</f>
         <v/>
       </c>
-      <c r="I29" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="I46" s="34" t="str">
+        <f>IF(SUM(I33,I34,I35,X20,I42,I43,I44,I45)=COUNTIF(I37:I41,"&lt;&gt;"),"","NO")</f>
         <v/>
       </c>
-      <c r="J29" s="22" t="str">
-        <f>IF(SUM(J16,J17,J18,J25,J26,J27,J28)=COUNTIF(J20:J24,"&lt;&gt;"),"","NO")</f>
+      <c r="J46" s="34" t="str">
+        <f>IF(SUM(J33,J34,J35,Y20,J42,J43,J44,J45)=COUNTIF(J37:J41,"&lt;&gt;"),"","NO")</f>
         <v/>
       </c>
-      <c r="K29" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="K46" s="34" t="str">
+        <f>IF(SUM(K33,K34,K35,Z20,K42,K43,K44,K45)=COUNTIF(K37:K41,"&lt;&gt;"),"","NO")</f>
         <v/>
       </c>
-      <c r="L29" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="L46" s="34" t="str">
+        <f>IF(SUM(L33,L34,L35,AA20,L42,L43,L44,L45)=COUNTIF(L37:L41,"&lt;&gt;"),"","NO")</f>
         <v/>
       </c>
-      <c r="M29" s="22" t="str">
-        <f>IF(SUM(M16,M17,M18,M25,M26,M27,M28)=COUNTIF(M20:M24,"&lt;&gt;"),"","NO")</f>
+      <c r="M46" s="34" t="str">
+        <f>IF(SUM(M33,M34,M35,AB20,M42,M43,M44,M45)=COUNTIF(M37:M41,"&lt;&gt;"),"","NO")</f>
         <v/>
       </c>
-      <c r="N29" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="N46" s="34" t="str">
+        <f>IF(SUM(N33,N34,N35,AC20,N42,N43,N44,N45)=COUNTIF(N37:N41,"&lt;&gt;"),"","NO")</f>
         <v/>
       </c>
-      <c r="O29" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="O46" s="34" t="str">
+        <f>IF(SUM(O33,O34,O35,AD20,O42,O43,O44,O45)=COUNTIF(O37:O41,"&lt;&gt;"),"","NO")</f>
         <v/>
       </c>
-      <c r="P29" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="P46" s="34" t="str">
+        <f>IF(SUM(P33,P34,P35,AE20,P42,P43,P44,P45)=COUNTIF(P37:P41,"&lt;&gt;"),"","NO")</f>
         <v/>
       </c>
-      <c r="Q29" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="Q46" s="34" t="str">
+        <f>IF(SUM(Q33,Q34,Q35,AF20,Q42,Q43,Q44,Q45)=COUNTIF(Q37:Q41,"&lt;&gt;"),"","NO")</f>
         <v/>
       </c>
-      <c r="R29" s="22" t="str">
-        <f>IF(SUM(S16,R17,S18,R25,R26,R27,R28)=COUNTIF(R20:R24,"&lt;&gt;"),"","NO")</f>
+      <c r="R46" t="str">
+        <f>IF(SUM(Q33,Q34,Q35,AG20,Q42,Q43,Q44,Q45)=COUNTIF(Q37:Q41,"&lt;&gt;"),"","NO")</f>
         <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>105</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31">
-        <v>3</v>
-      </c>
-      <c r="E31">
-        <v>4</v>
-      </c>
-      <c r="F31">
-        <v>5</v>
-      </c>
-      <c r="G31">
-        <v>6</v>
-      </c>
-      <c r="H31">
-        <v>7</v>
-      </c>
-      <c r="I31">
-        <v>8</v>
-      </c>
-      <c r="J31">
-        <v>9</v>
-      </c>
-      <c r="K31">
-        <v>10</v>
-      </c>
-      <c r="L31">
-        <v>11</v>
-      </c>
-      <c r="M31">
-        <v>12</v>
-      </c>
-      <c r="N31">
-        <v>13</v>
-      </c>
-      <c r="O31">
-        <v>14</v>
-      </c>
-      <c r="P31">
-        <v>15</v>
-      </c>
-      <c r="Q31">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A32" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8">
-        <v>1</v>
-      </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8">
-        <v>1</v>
-      </c>
-      <c r="G32" s="8">
-        <v>1</v>
-      </c>
-      <c r="H32" s="8">
-        <v>1</v>
-      </c>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8">
-        <v>1</v>
-      </c>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A33" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9">
-        <v>1</v>
-      </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9">
-        <v>1</v>
-      </c>
-      <c r="H33" s="9">
-        <v>1</v>
-      </c>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9">
-        <v>1</v>
-      </c>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A34" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27">
-        <v>1</v>
-      </c>
-      <c r="D34" s="27">
-        <v>1</v>
-      </c>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27">
-        <v>1</v>
-      </c>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="27"/>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="27"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B35" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F35" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="G35" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="H35" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="I35" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="J35" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="K35" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="L35" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="M35" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="N35" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="O35" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="P35" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q35" s="15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B36" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F36" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="H36" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="I36" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="J36" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="K36" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="L36" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="M36" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="N36" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="O36" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="P36" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q36" s="25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B37" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F37" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="G37" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="H37" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="I37" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="J37" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="K37" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="L37" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="M37" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="N37" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="O37" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="P37" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q37" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B38" s="22"/>
-      <c r="C38" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E38" s="22"/>
-      <c r="F38" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G38" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H38" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="I38" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="J38" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="K38" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="L38" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="M38" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="N38" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="O38" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="P38" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q38" s="26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="G39" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="H39" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="J39" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="M39" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="N39" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="P39" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q39" s="28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="H40" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q40" s="18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A41" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25">
-        <v>1</v>
-      </c>
-      <c r="H41" s="25">
-        <v>1</v>
-      </c>
-      <c r="I41" s="25">
-        <v>1</v>
-      </c>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25">
-        <v>1</v>
-      </c>
-      <c r="L41" s="25"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="25">
-        <v>1</v>
-      </c>
-      <c r="O41" s="25"/>
-      <c r="P41" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A42" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28">
-        <v>1</v>
-      </c>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28">
-        <v>1</v>
-      </c>
-      <c r="O42" s="28">
-        <v>1</v>
-      </c>
-      <c r="P42" s="28">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A43" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16">
-        <v>1</v>
-      </c>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16">
-        <v>1</v>
-      </c>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16">
-        <v>1</v>
-      </c>
-      <c r="N43" s="16">
-        <v>1</v>
-      </c>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A44" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="B44" s="18">
-        <v>2</v>
-      </c>
-      <c r="C44" s="18">
-        <v>1</v>
-      </c>
-      <c r="D44" s="18">
-        <v>1</v>
-      </c>
-      <c r="E44" s="18">
-        <v>2</v>
-      </c>
-      <c r="F44" s="18">
-        <v>1</v>
-      </c>
-      <c r="G44" s="18">
-        <v>1</v>
-      </c>
-      <c r="H44" s="18">
-        <v>0</v>
-      </c>
-      <c r="I44" s="18">
-        <v>2</v>
-      </c>
-      <c r="J44" s="18">
-        <v>3</v>
-      </c>
-      <c r="K44" s="18">
-        <v>1</v>
-      </c>
-      <c r="L44" s="18">
-        <v>2</v>
-      </c>
-      <c r="M44" s="18">
-        <v>3</v>
-      </c>
-      <c r="N44" s="18">
-        <v>1</v>
-      </c>
-      <c r="O44" s="18">
-        <v>2</v>
-      </c>
-      <c r="P44" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
-        <v>106</v>
-      </c>
-      <c r="B45" t="str">
-        <f>IF(SUM(B32,B33,B34,P19,B41,B42,B43,B44)=COUNTIF(B36:B40,"&lt;&gt;"),"","NO")</f>
-        <v/>
-      </c>
-      <c r="C45" t="str">
-        <f t="shared" ref="C45:Q45" si="7">IF(SUM(C32,C33,C34,Q19,C41,C42,C43,C44)=COUNTIF(C36:C40,"&lt;&gt;"),"","NO")</f>
-        <v/>
-      </c>
-      <c r="D45" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="E45" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F45" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G45" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H45" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I45" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="J45" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K45" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L45" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M45" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="N45" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="O45" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P45" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="Q45" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="R45" t="str">
-        <f>IF(SUM(Q32,Q33,Q34,AF19,Q41,Q42,Q43,Q44)=COUNTIF(Q36:Q40,"&lt;&gt;"),"","NO")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="M48">
-        <f>SQRT(121)</f>
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59B59A2-0E5A-4FD4-86E6-9BFEA6DF0790}">
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="8" max="8" width="9.86328125" customWidth="1"/>
+    <col min="9" max="9" width="22.265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="74" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="20.65">
+      <c r="A2" s="75"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="76" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="81" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="76" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" s="76" t="s">
+        <v>120</v>
+      </c>
+      <c r="I4" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="J4" s="76" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="28.5" customHeight="1">
+      <c r="A5" s="82">
+        <v>1</v>
+      </c>
+      <c r="B5" s="83"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="H5" s="83"/>
+      <c r="I5" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="J5" s="84" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="82"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="78">
+        <v>120</v>
+      </c>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="84"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="82"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="84"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="82"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="84"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="82">
+        <v>2</v>
+      </c>
+      <c r="B9" s="83"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82" t="s">
+        <v>126</v>
+      </c>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82" t="s">
+        <v>127</v>
+      </c>
+      <c r="J9" s="82"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="82"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="82"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="78">
+        <v>300</v>
+      </c>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="82"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="82">
+        <v>3</v>
+      </c>
+      <c r="B13" s="83"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="H13" s="83"/>
+      <c r="I13" s="82" t="s">
+        <v>129</v>
+      </c>
+      <c r="J13" s="82"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="82"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="82"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="78">
+        <v>500</v>
+      </c>
+      <c r="D15" s="78">
+        <v>500</v>
+      </c>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="82"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="82">
+        <v>4</v>
+      </c>
+      <c r="B17" s="83"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82" t="s">
+        <v>130</v>
+      </c>
+      <c r="H17" s="82" t="s">
+        <v>131</v>
+      </c>
+      <c r="I17" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="J17" s="82"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="82"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="82"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="78">
+        <v>800</v>
+      </c>
+      <c r="D19" s="78">
+        <v>800</v>
+      </c>
+      <c r="E19" s="78">
+        <v>800</v>
+      </c>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="82"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="82">
+        <v>5</v>
+      </c>
+      <c r="B21" s="83"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21" s="82" t="s">
+        <v>131</v>
+      </c>
+      <c r="I21" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="J21" s="82"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="82"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="82"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="78">
+        <v>1000</v>
+      </c>
+      <c r="D23" s="78">
+        <v>1000</v>
+      </c>
+      <c r="E23" s="78">
+        <v>1000</v>
+      </c>
+      <c r="F23" s="78">
+        <v>1000</v>
+      </c>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="82"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="82"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
+    </row>
+  </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="H13:H16"/>
+    <mergeCell ref="I13:I16"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="J13:J16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="G17:G20"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="I17:I20"/>
+    <mergeCell ref="J17:J20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="G21:G24"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="I21:I24"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="G13:G16"/>
+    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="I5:I8"/>
+    <mergeCell ref="J5:J8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="G9:G12"/>
+    <mergeCell ref="H9:H12"/>
+    <mergeCell ref="I9:I12"/>
+    <mergeCell ref="J9:J12"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="F5:F8"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{F136F997-F493-417B-A0AF-2A2814270F51}"/>
+    <hyperlink ref="J5" r:id="rId2" tooltip="Blueprint (page does not exist)" display="https://dsp-wiki.com/index.php?title=Blueprint&amp;action=edit&amp;redlink=1" xr:uid="{A521A97C-B625-4316-8F0B-B6D46C4AA286}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
 </file>